--- a/phdata.xlsx
+++ b/phdata.xlsx
@@ -1,48 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F367CD6-3C77-4BFF-8FE8-9139743E6016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67382DEB-73D5-43E3-B4DE-8323065E85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7FE4CE45-C507-4767-BB12-FFE758A63766}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="XLSTAT_20220111_140947_1_HID" sheetId="32" state="hidden" r:id="rId2"/>
-    <sheet name="XLSTAT_20220111_115245_1_HID" sheetId="30" state="hidden" r:id="rId3"/>
-    <sheet name="XLSTAT_20220111_114934_1_HID" sheetId="28" state="hidden" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="33" r:id="rId2"/>
+    <sheet name="XLSTAT_20220111_140947_1_HID" sheetId="32" state="hidden" r:id="rId3"/>
+    <sheet name="XLSTAT_20220111_115245_1_HID" sheetId="30" state="hidden" r:id="rId4"/>
+    <sheet name="XLSTAT_20220111_114934_1_HID" sheetId="28" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="xdata1" localSheetId="3" hidden="1">XLSTAT_20220111_114934_1_HID!$C$1:$C$70</definedName>
-    <definedName name="xdata1" localSheetId="2" hidden="1">XLSTAT_20220111_115245_1_HID!$C$1:$C$70</definedName>
-    <definedName name="xdata1" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$C$1:$C$70</definedName>
+    <definedName name="xdata1" localSheetId="4" hidden="1">XLSTAT_20220111_114934_1_HID!$C$1:$C$70</definedName>
+    <definedName name="xdata1" localSheetId="3" hidden="1">XLSTAT_20220111_115245_1_HID!$C$1:$C$70</definedName>
+    <definedName name="xdata1" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$C$1:$C$70</definedName>
     <definedName name="xdata1" hidden="1">#REF!</definedName>
-    <definedName name="xdata2" localSheetId="3" hidden="1">XLSTAT_20220111_114934_1_HID!$G$1:$G$70</definedName>
-    <definedName name="xdata2" localSheetId="2" hidden="1">XLSTAT_20220111_115245_1_HID!$G$1:$G$70</definedName>
-    <definedName name="xdata2" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$G$1:$G$70</definedName>
+    <definedName name="xdata2" localSheetId="4" hidden="1">XLSTAT_20220111_114934_1_HID!$G$1:$G$70</definedName>
+    <definedName name="xdata2" localSheetId="3" hidden="1">XLSTAT_20220111_115245_1_HID!$G$1:$G$70</definedName>
+    <definedName name="xdata2" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$G$1:$G$70</definedName>
     <definedName name="xdata2" hidden="1">#REF!</definedName>
-    <definedName name="xdata3" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$K$1:$K$100</definedName>
-    <definedName name="xdata4" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$O$1:$O$100</definedName>
-    <definedName name="xdata5" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$S$1:$S$70</definedName>
-    <definedName name="xdata6" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$W$1:$W$70</definedName>
-    <definedName name="ydata1" localSheetId="3" hidden="1">XLSTAT_20220111_114934_1_HID!$D$1:$D$70</definedName>
-    <definedName name="ydata1" localSheetId="2" hidden="1">XLSTAT_20220111_115245_1_HID!$D$1:$D$70</definedName>
-    <definedName name="ydata1" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$D$1:$D$70</definedName>
+    <definedName name="xdata3" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$K$1:$K$100</definedName>
+    <definedName name="xdata4" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$O$1:$O$100</definedName>
+    <definedName name="xdata5" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$S$1:$S$70</definedName>
+    <definedName name="xdata6" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$W$1:$W$70</definedName>
+    <definedName name="ydata1" localSheetId="4" hidden="1">XLSTAT_20220111_114934_1_HID!$D$1:$D$70</definedName>
+    <definedName name="ydata1" localSheetId="3" hidden="1">XLSTAT_20220111_115245_1_HID!$D$1:$D$70</definedName>
+    <definedName name="ydata1" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$D$1:$D$70</definedName>
     <definedName name="ydata1" hidden="1">#REF!</definedName>
-    <definedName name="ydata2" localSheetId="3" hidden="1">XLSTAT_20220111_114934_1_HID!$H$1:$H$70</definedName>
-    <definedName name="ydata2" localSheetId="2" hidden="1">XLSTAT_20220111_115245_1_HID!$H$1:$H$70</definedName>
-    <definedName name="ydata2" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$H$1:$H$70</definedName>
+    <definedName name="ydata2" localSheetId="4" hidden="1">XLSTAT_20220111_114934_1_HID!$H$1:$H$70</definedName>
+    <definedName name="ydata2" localSheetId="3" hidden="1">XLSTAT_20220111_115245_1_HID!$H$1:$H$70</definedName>
+    <definedName name="ydata2" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$H$1:$H$70</definedName>
     <definedName name="ydata2" hidden="1">#REF!</definedName>
-    <definedName name="ydata3" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$L$1:$L$100</definedName>
-    <definedName name="ydata4" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$P$1:$P$100</definedName>
-    <definedName name="ydata5" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$T$1:$T$70</definedName>
-    <definedName name="ydata6" localSheetId="1" hidden="1">XLSTAT_20220111_140947_1_HID!$X$1:$X$70</definedName>
+    <definedName name="ydata3" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$L$1:$L$100</definedName>
+    <definedName name="ydata4" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$P$1:$P$100</definedName>
+    <definedName name="ydata5" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$T$1:$T$70</definedName>
+    <definedName name="ydata6" localSheetId="2" hidden="1">XLSTAT_20220111_140947_1_HID!$X$1:$X$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>MDDN</t>
   </si>
@@ -262,6 +263,18 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>TPVDN2</t>
+  </si>
+  <si>
+    <t>TPVUN3</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +314,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -390,11 +421,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="57">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -404,427 +447,6 @@
           <color theme="9"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -906,6 +528,227 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -915,6 +758,288 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -943,13 +1068,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="9"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -963,18 +1090,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1108,7 +1223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$45</c:f>
+              <c:f>Feuil2!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1131,7 +1246,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$44:$P$44</c:f>
+              <c:f>Feuil2!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1185,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$45:$P$45</c:f>
+              <c:f>Feuil2!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1240,7 +1355,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3607-4DDF-A174-2A5FCF75C89E}"/>
+              <c16:uniqueId val="{00000000-062F-4D31-B191-4CE0ED1A2D19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1249,7 +1364,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$46</c:f>
+              <c:f>Feuil2!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,7 +1387,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$44:$P$44</c:f>
+              <c:f>Feuil2!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1326,7 +1441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$46:$P$46</c:f>
+              <c:f>Feuil2!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1381,7 +1496,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3607-4DDF-A174-2A5FCF75C89E}"/>
+              <c16:uniqueId val="{00000001-062F-4D31-B191-4CE0ED1A2D19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1663,7 +1778,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$50</c:f>
+              <c:f>Feuil2!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1686,7 +1801,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$49:$P$49</c:f>
+              <c:f>Feuil2!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1740,7 +1855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$50:$P$50</c:f>
+              <c:f>Feuil2!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1795,7 +1910,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88D7-45FF-89FC-746FA5520A35}"/>
+              <c16:uniqueId val="{00000000-D196-45A1-A082-6326AFE40F59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1804,7 +1919,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$51</c:f>
+              <c:f>Feuil2!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1827,7 +1942,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$49:$P$49</c:f>
+              <c:f>Feuil2!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1881,7 +1996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$51:$P$51</c:f>
+              <c:f>Feuil2!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1936,7 +2051,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-88D7-45FF-89FC-746FA5520A35}"/>
+              <c16:uniqueId val="{00000001-D196-45A1-A082-6326AFE40F59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2219,7 +2334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$55</c:f>
+              <c:f>Feuil2!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2242,7 +2357,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$54:$P$54</c:f>
+              <c:f>Feuil2!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2296,7 +2411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$55:$P$55</c:f>
+              <c:f>Feuil2!$B$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2351,7 +2466,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8675-4180-9B36-8CA524322002}"/>
+              <c16:uniqueId val="{00000000-16E4-471B-8D0A-8832E52A9377}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2360,7 +2475,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$56</c:f>
+              <c:f>Feuil2!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2383,7 +2498,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$54:$P$54</c:f>
+              <c:f>Feuil2!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2437,7 +2552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$56:$P$56</c:f>
+              <c:f>Feuil2!$B$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2492,7 +2607,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8675-4180-9B36-8CA524322002}"/>
+              <c16:uniqueId val="{00000001-16E4-471B-8D0A-8832E52A9377}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4367,27 +4482,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>96693</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>18473</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>182418</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>669348</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681287A5-01C4-4353-A4C0-778F9C2E01B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A630B67-32EF-4476-A2BD-3969FC3FD8A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4403,27 +4520,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>172894</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>748723</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>637598</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C1C1AA-453C-466A-A91D-DCCDF08CEAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B41C9F8-E7A6-4E3B-810D-E6191749C7E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4439,27 +4558,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>866</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>26554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>18473</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>48490</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>669348</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 6">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10DA979-256A-4FD7-BBD7-12BB6D0148E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1884D52-9C06-4272-B5DD-0B5532AB69D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4477,87 +4598,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDD93F84-DE9E-4A67-A23B-790B2C46C252}" name="Tableau1" displayName="Tableau1" ref="A1:Y42" headerRowDxfId="50">
-  <autoFilter ref="A1:Y42" xr:uid="{BDD93F84-DE9E-4A67-A23B-790B2C46C252}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y42">
-    <sortCondition ref="A1:A42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDD93F84-DE9E-4A67-A23B-790B2C46C252}" name="Tableau1" displayName="Tableau1" ref="A1:AB43" totalsRowCount="1" headerRowDxfId="56">
+  <autoFilter ref="A1:AB42" xr:uid="{BDD93F84-DE9E-4A67-A23B-790B2C46C252}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB42">
+    <sortCondition ref="F1:F42"/>
   </sortState>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{07EB122A-99DF-4B2D-BC92-B8464A75F3F3}" name="id" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{9079173E-36C0-4618-84BD-CCDD653ACCF0}" name="MDDN" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
-      <totalsRowFormula>_xlfn.STDEV.P(Tableau1[MDDN])</totalsRowFormula>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{07EB122A-99DF-4B2D-BC92-B8464A75F3F3}" name="id" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9079173E-36C0-4618-84BD-CCDD653ACCF0}" name="MDDN" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="26">
+      <totalsRowFormula>STDEVA(Tableau1[MDDN])/SQRT(COUNT(Tableau1[MDDN]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A0FBFC70-0C1D-4A03-ABB8-0FE32E1BEEDE}" name="MDUN" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="3" xr3:uid="{A0FBFC70-0C1D-4A03-ABB8-0FE32E1BEEDE}" name="MDUN" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="25">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[MDUN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0851A76F-35DF-479F-AAA1-0EBF348219E4}" name="VMDN" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="4" xr3:uid="{0851A76F-35DF-479F-AAA1-0EBF348219E4}" name="VMDN" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="24">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[VMDN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57030F41-9569-4D7F-8DDB-0A54DA4B1F62}" name="VMUN" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" xr3:uid="{57030F41-9569-4D7F-8DDB-0A54DA4B1F62}" name="VMUN" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="23">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[VMUN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AD352AB-D4B5-496F-ADE4-0441CAA7B0DB}" name="TPVDN" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="6" xr3:uid="{4AD352AB-D4B5-496F-ADE4-0441CAA7B0DB}" name="TPVDN" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="22">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[TPVDN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{304A6F69-68A0-4C7B-A35E-D8AD8E7FE83D}" name="TPVUN" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="7" xr3:uid="{304A6F69-68A0-4C7B-A35E-D8AD8E7FE83D}" name="TPVUN" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="21">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[TPVUN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4E947B5E-AA3A-4227-97B5-0634049947A2}" name="AMPDN" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="8" xr3:uid="{4E947B5E-AA3A-4227-97B5-0634049947A2}" name="AMPDN" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="20">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[AMPDN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5A412F77-605A-4DC3-84A5-4760DFAC26F8}" name="AMPUN" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="9" xr3:uid="{5A412F77-605A-4DC3-84A5-4760DFAC26F8}" name="AMPUN" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="19">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[AMPUN])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{437665B1-EA80-4256-9953-B5C98AAB15EB}" name="MDDS" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="10" xr3:uid="{437665B1-EA80-4256-9953-B5C98AAB15EB}" name="MDDS" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="18">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[MDDS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{72119986-1687-465D-AB33-0E1BEE137D4A}" name="MDUS" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="11" xr3:uid="{72119986-1687-465D-AB33-0E1BEE137D4A}" name="MDUS" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="17">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[MDUS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3C090F62-7910-425A-B2BD-E10F8E4FB79D}" name="VMDS" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="12" xr3:uid="{3C090F62-7910-425A-B2BD-E10F8E4FB79D}" name="VMDS" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="16">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[VMDS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{29DFE91A-F116-439F-8038-9C7513497EF1}" name="VMUS" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="13" xr3:uid="{29DFE91A-F116-439F-8038-9C7513497EF1}" name="VMUS" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="15">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[VMUS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{066E2040-E075-42AD-8EAA-E4822CF8C82E}" name="TPVDS" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="14" xr3:uid="{066E2040-E075-42AD-8EAA-E4822CF8C82E}" name="TPVDS" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="14">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[TPVDS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F0BD233E-EEF0-4225-A355-10D156A51855}" name="TPVUS" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="15" xr3:uid="{F0BD233E-EEF0-4225-A355-10D156A51855}" name="TPVUS" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="13">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[TPVUS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{4C80B4D5-6A4A-4EB2-A031-C65A7B9FA577}" name="AMPDS" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="28" xr3:uid="{B773DCBE-6683-4E66-955C-874AEE8D8871}" name="Colonne1" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="12">
+      <calculatedColumnFormula>Tableau1[[#This Row],[TPVUS]]&gt;0.5</calculatedColumnFormula>
+      <totalsRowFormula>COUNTIF(Tableau1[Colonne1],"FAUX")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{4C80B4D5-6A4A-4EB2-A031-C65A7B9FA577}" name="AMPDS" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="11">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[AMPDS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E78329AD-571D-4D07-906B-8BA87A2E1A5C}" name="AMPUS" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="17" xr3:uid="{E78329AD-571D-4D07-906B-8BA87A2E1A5C}" name="AMPUS" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="10">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[AMPUS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{BA54C5C1-EC8D-45A6-B203-DFC785994B7B}" name="MDDF" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="18" xr3:uid="{BA54C5C1-EC8D-45A6-B203-DFC785994B7B}" name="MDDF" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="9">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[MDDF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2694BB86-AEA2-4D72-AA90-235C115147CD}" name="MDUF" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="19" xr3:uid="{2694BB86-AEA2-4D72-AA90-235C115147CD}" name="MDUF" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="8">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[MDUF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{23D1AEA6-BD13-4576-9E5A-494413D9661C}" name="VMDF" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="20" xr3:uid="{23D1AEA6-BD13-4576-9E5A-494413D9661C}" name="VMDF" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="7">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[VMDF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{C098705A-04AB-4AA4-A8CF-1BA077A35138}" name="VMUF" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="21" xr3:uid="{C098705A-04AB-4AA4-A8CF-1BA077A35138}" name="VMUF" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="6">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[VMUF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C8C6D56A-5BAC-4EE2-B9BC-9BDEAF963CB2}" name="TPVDF" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="22" xr3:uid="{C8C6D56A-5BAC-4EE2-B9BC-9BDEAF963CB2}" name="TPVDF" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="5">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[TPVDF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C4D0F3FE-35ED-42EB-8996-3F9E33C878C4}" name="TPVUF" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="23" xr3:uid="{C4D0F3FE-35ED-42EB-8996-3F9E33C878C4}" name="TPVUF" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="4">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[TPVUF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{B4FB9622-9A1D-43BB-A8CC-BD3807D69DCD}" name="AMPDF" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="24" xr3:uid="{B4FB9622-9A1D-43BB-A8CC-BD3807D69DCD}" name="AMPDF" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="3">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[AMPDF])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{A12C2CAB-01FA-49C9-BA41-8F71A7C289B1}" name="AMPUF" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="25" xr3:uid="{A12C2CAB-01FA-49C9-BA41-8F71A7C289B1}" name="AMPUF" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="2">
       <totalsRowFormula>_xlfn.STDEV.P(Tableau1[AMPUF])</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="26" xr3:uid="{A5D24F14-712A-486C-9887-E24B2F93CC5E}" name="TPVDN2" dataDxfId="29" totalsRowDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{D3A0DED5-5066-4341-9D64-FC4DEBF3B299}" name="TPVUN3" dataDxfId="28" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4859,18 +4986,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA0E1C4-4558-4C8F-992C-DA0B6980A35F}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P56" sqref="A54:P56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -4917,1508 +5045,1723 @@
         <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
+      <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="3">
-        <v>0.97000000000000008</v>
+        <v>1.3590909090909</v>
       </c>
       <c r="C2" s="3">
-        <v>0.96944444444444422</v>
+        <v>1.2072727272727199</v>
       </c>
       <c r="D2" s="3">
-        <v>1271.2325159410002</v>
+        <v>737.41617595040998</v>
       </c>
       <c r="E2" s="3">
-        <v>1217.7589646512188</v>
+        <v>881.18309667500898</v>
       </c>
       <c r="F2" s="3">
-        <v>0.54953747452026191</v>
+        <v>0.41774007287742199</v>
       </c>
       <c r="G2" s="3">
-        <v>0.52817749867082353</v>
+        <v>0.39746560803888498</v>
       </c>
       <c r="H2" s="3">
-        <v>670.70153969556884</v>
+        <v>540.92682265640804</v>
       </c>
       <c r="I2" s="4">
-        <v>664.61850093212433</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1.731052631578947</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1.8456249999999996</v>
+        <v>533.14681168285597</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2.98</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2.2654545454545398</v>
       </c>
       <c r="L2" s="3">
-        <v>650.98743951283132</v>
+        <v>327.178609557615</v>
       </c>
       <c r="M2" s="3">
-        <v>578.55353096208137</v>
+        <v>396.82246039647703</v>
       </c>
       <c r="N2" s="3">
-        <v>0.61535407617839588</v>
+        <v>0.27887088924861703</v>
       </c>
       <c r="O2" s="3">
-        <v>0.51645598223847033</v>
-      </c>
-      <c r="P2" s="3">
-        <v>672.23607792970188</v>
+        <v>0.35579419944728302</v>
+      </c>
+      <c r="P2" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>678.9293828724177</v>
+        <v>524.463040329102</v>
       </c>
       <c r="R2" s="3">
-        <v>0.56684210526315781</v>
+        <v>508.02877463616198</v>
       </c>
       <c r="S2" s="3">
-        <v>0.56842105263157894</v>
+        <v>0.42272727272727201</v>
       </c>
       <c r="T2" s="3">
-        <v>2179.0798469080337</v>
+        <v>0.35090909090909</v>
       </c>
       <c r="U2" s="3">
-        <v>2192.9977547467647</v>
+        <v>2601.8185959909401</v>
       </c>
       <c r="V2" s="3">
-        <v>0.5271663235423989</v>
+        <v>2579.3972646293901</v>
       </c>
       <c r="W2" s="3">
-        <v>0.50483645957981038</v>
+        <v>0.45375240762070101</v>
       </c>
       <c r="X2" s="3">
-        <v>707.15153455240511</v>
+        <v>0.44370824336097497</v>
       </c>
       <c r="Y2" s="3">
-        <v>709.696031757887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+        <v>530.52016618364701</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>491.344210655815</v>
+      </c>
+      <c r="AA2" s="12">
+        <f>0.08/0.42</f>
+        <v>0.19047619047619049</v>
+      </c>
+      <c r="AB2" s="12">
+        <f>0.09/0.4</f>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.0889473684210527</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.96947368421052638</v>
+      </c>
+      <c r="D3" s="3">
+        <v>885.33309646604346</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1195.0078946113424</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.42547713256049563</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.36905610037703962</v>
+      </c>
+      <c r="H3" s="3">
+        <v>554.971183567347</v>
+      </c>
+      <c r="I3" s="4">
+        <v>599.09424887076841</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1.9238888888888885</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1.6695</v>
+      </c>
+      <c r="L3" s="3">
+        <v>536.98116999916022</v>
+      </c>
+      <c r="M3" s="3">
+        <v>681.33163674887953</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.42459182958209496</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.34145275804688041</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>580.7212182355247</v>
+      </c>
+      <c r="R3" s="3">
+        <v>596.49334995091249</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.70666666666666655</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.63157894736842091</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1440.3689967371761</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1772.0877545097067</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.40305808865155279</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.37438441937149397</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>582.64305901318835</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>630.57219319116484</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.80545454545454498</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.80454545454545401</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1391.0669308870099</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1446.7536207322</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.43845420100214499</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.48693633461812902</v>
+      </c>
+      <c r="H4" s="3">
+        <v>591.93770461823703</v>
+      </c>
+      <c r="I4" s="4">
+        <v>576.71429440862801</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.60363636363636</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1.42363636363636</v>
+      </c>
+      <c r="L4" s="3">
+        <v>657.59635236067504</v>
+      </c>
+      <c r="M4" s="3">
+        <v>681.91456444398102</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.34026802809911699</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.51244110828637301</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>563.455136330291</v>
+      </c>
+      <c r="R4" s="3">
+        <v>538.33358782318396</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.397272727272727</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.41909090909090901</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2780.08877395434</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2564.1887938998898</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.40693065117341898</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.46828952943714403</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>599.22669160447401</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>575.972593408796</v>
+      </c>
+      <c r="AA4" s="12">
+        <f>0.06/0.44</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="AB4" s="12">
+        <f>0.06/0.49</f>
+        <v>0.12244897959183673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.96461538461538443</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1133.0947970528537</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1146.6728122736154</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.44345749711391835</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.38250911510000207</v>
+      </c>
+      <c r="H5" s="3">
+        <v>593.41130164063475</v>
+      </c>
+      <c r="I5" s="3">
+        <v>568.60171889206038</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1.8637499999999998</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1.8776470588235294</v>
+      </c>
+      <c r="L5" s="3">
+        <v>537.96189767482713</v>
+      </c>
+      <c r="M5" s="3">
+        <v>518.20573759706599</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.41338497822655379</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.2983999298284275</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>579.98356372182525</v>
+      </c>
+      <c r="R5" s="3">
+        <v>565.3196572826605</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.82368421052631569</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.6942105263157895</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1378.7402468124449</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1512.280150587811</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.5207964085669754</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.43813487250952327</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>590.71251916936149</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>583.59820399679404</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>793.40134172619196</v>
+      </c>
+      <c r="E6" s="3">
+        <v>978.763802706766</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.44625647170126798</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.41537819050896801</v>
+      </c>
+      <c r="H6" s="3">
+        <v>535.53880449986798</v>
+      </c>
+      <c r="I6" s="4">
+        <v>534.05590746112205</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1.7418181818181799</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1.5554545454545401</v>
+      </c>
+      <c r="L6" s="3">
+        <v>477.65556060440298</v>
+      </c>
+      <c r="M6" s="3">
+        <v>552.34220588712606</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.48081154573207702</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.40134352723789901</v>
+      </c>
+      <c r="P6" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>495.43761673495999</v>
+      </c>
+      <c r="R6" s="3">
+        <v>499.10559857250303</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.36909090909090903</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.37181818181818099</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3049.77289496909</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2777.53774451342</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.47084502145477702</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.46773383257657902</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>524.70376478728201</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>537.08076349424505</v>
+      </c>
+      <c r="AA6" s="12">
+        <f>0.1/0.45</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="AB6" s="12">
+        <f>0.06/0.42</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.29181818181818</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.17545454545454</v>
+      </c>
+      <c r="D7" s="3">
+        <v>707.61943670668495</v>
+      </c>
+      <c r="E7" s="3">
+        <v>762.57560689008199</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.45640848881649199</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.48743998849094899</v>
+      </c>
+      <c r="H7" s="3">
+        <v>469.42399250425302</v>
+      </c>
+      <c r="I7" s="4">
+        <v>489.15660981139899</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3.4909090909090899</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3.1227272727272699</v>
+      </c>
+      <c r="L7" s="3">
+        <v>257.14434205744499</v>
+      </c>
+      <c r="M7" s="3">
+        <v>237.88573146950799</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.41172736756989697</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.41361580316767499</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>438.98096371210499</v>
+      </c>
+      <c r="R7" s="3">
+        <v>444.86601093953698</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.37454545454545402</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.325454545454545</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2611.8945946702001</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2758.9744138569699</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.485478158205431</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.41993595945936402</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>468.32273458948498</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>470.54472142895497</v>
+      </c>
+      <c r="AA7" s="12">
+        <f>0.06/0.46</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="AB7" s="12">
+        <f>0.05/0.49</f>
+        <v>0.10204081632653061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1.13090909090909</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.94636363636363596</v>
+      </c>
+      <c r="D8" s="3">
+        <v>845.99818458669904</v>
+      </c>
+      <c r="E8" s="3">
+        <v>981.52812499758295</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.456497571449971</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.39160582514590098</v>
+      </c>
+      <c r="H8" s="3">
+        <v>513.11796196298803</v>
+      </c>
+      <c r="I8" s="3">
+        <v>509.19590729131698</v>
+      </c>
+      <c r="J8" s="12">
+        <v>3.754</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3.06454545454545</v>
+      </c>
+      <c r="L8" s="3">
+        <v>230.131751550552</v>
+      </c>
+      <c r="M8" s="3">
+        <v>275.70562451041297</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.51172894355905696</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.38129002784453497</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>485.91528257365297</v>
+      </c>
+      <c r="R8" s="3">
+        <v>471.41855787745499</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.27636363636363598</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.25818181818181801</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3570.7764449861702</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3648.5705294407198</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.45958859539504698</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.42067658337250802</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>498.842161245873</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>494.46732469645599</v>
+      </c>
+      <c r="AA8" s="12">
+        <f>0.08/0.46</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="AB8" s="12">
+        <f>0.05/0.39</f>
+        <v>0.12820512820512822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.81473684210526309</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1348.4944819372413</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1338.7221292390745</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.46582334044054513</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.37040630815051878</v>
+      </c>
+      <c r="H9" s="3">
+        <v>606.17173335696032</v>
+      </c>
+      <c r="I9" s="4">
+        <v>585.52882601107842</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.94157894736842085</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1.0190000000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1137.4768604860501</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1214.3477081697872</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.42908774431801983</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.36043130213888225</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>568.07985389528312</v>
+      </c>
+      <c r="R9" s="3">
+        <v>622.99502078118758</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.6852631578947368</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1638.7039318735265</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1625.5184406389731</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.48891746058890739</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.37960631550417773</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>631.65881812933037</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>648.71889649431478</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.4369999999999998</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="D10" s="3">
+        <v>872.54127274993903</v>
+      </c>
+      <c r="E10" s="3">
+        <v>932.9111117529186</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.46622168204074715</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.42779494001538854</v>
+      </c>
+      <c r="H10" s="3">
+        <v>669.85263858025348</v>
+      </c>
+      <c r="I10" s="4">
+        <v>661.23180198978503</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.7105263157894737</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1.6404999999999998</v>
+      </c>
+      <c r="L10" s="3">
+        <v>723.2756292670025</v>
+      </c>
+      <c r="M10" s="3">
+        <v>693.6477823247169</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.4595325625927334</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.4691074182190379</v>
+      </c>
+      <c r="P10" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>668.47309039920128</v>
+      </c>
+      <c r="R10" s="3">
+        <v>670.56016579296704</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.87894736842105281</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.853157894736842</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1477.3710675530483</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1475.3558526076238</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.44250081176133627</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.42234582285391919</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>680.004167977826</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>676.70588812050948</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1.3574999999999999</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>678.64223668337308</v>
+      </c>
+      <c r="E11" s="3">
+        <v>836.53423290979072</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.47104516806907304</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.47563500279625009</v>
+      </c>
+      <c r="H11" s="3">
+        <v>557.76862172314577</v>
+      </c>
+      <c r="I11" s="3">
+        <v>558.25200845732491</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1.9829411764705878</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1.9424999999999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>448.83729968674936</v>
+      </c>
+      <c r="M11" s="3">
+        <v>480.41018230196863</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.54882973966864956</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.39400860055563275</v>
+      </c>
+      <c r="P11" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>560.61649039274323</v>
+      </c>
+      <c r="R11" s="3">
+        <v>561.25398351365016</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.62899999999999989</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.60210526315789459</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1651.423325728892</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1713.799379229032</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.49091626348720324</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.46594927531713443</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>595.12416884760046</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>594.34697745961137</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.3436842105263158</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.1563157894736844</v>
+      </c>
+      <c r="D12" s="3">
+        <v>891.96634837013767</v>
+      </c>
+      <c r="E12" s="3">
+        <v>987.88951134231377</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.47284395496530618</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.39856754271288286</v>
+      </c>
+      <c r="H12" s="3">
+        <v>685.30680525357434</v>
+      </c>
+      <c r="I12" s="4">
+        <v>643.67130143014992</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1.9536363636363638</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2.2433333333333336</v>
+      </c>
+      <c r="L12" s="3">
+        <v>546.14655307257044</v>
+      </c>
+      <c r="M12" s="3">
+        <v>511.95826679229384</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.44566305743555323</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.26477227950884252</v>
+      </c>
+      <c r="P12" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>678.38768443865149</v>
+      </c>
+      <c r="R12" s="3">
+        <v>648.44848603034211</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.57105263157894737</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2230.1183517319919</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2269.2321509126687</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.53069453141049827</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.4632977848166841</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>759.40406999995798</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>740.63388385629128</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.97545454545454502</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.78727272727272701</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1059.90974125151</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1281.74631877977</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.473501425456749</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.46839130693631997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>576.59333286610695</v>
+      </c>
+      <c r="I13" s="4">
+        <v>550.88146747082703</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1.4090909090909001</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1.16818181818181</v>
+      </c>
+      <c r="L13" s="3">
+        <v>701.64751570123201</v>
+      </c>
+      <c r="M13" s="3">
+        <v>810.64193848688296</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.49200434157628398</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.45069015609652902</v>
+      </c>
+      <c r="P13" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>554.06303381323005</v>
+      </c>
+      <c r="R13" s="3">
+        <v>521.45423643095398</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.44636363636363602</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="U13" s="3">
+        <v>2422.0969930586002</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2400.12315355088</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.49489922010515403</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.50742408740792599</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>562.48042692099898</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>538.578644990724</v>
+      </c>
+      <c r="AA13" s="12">
+        <f>0.04/0.47</f>
+        <v>8.5106382978723416E-2</v>
+      </c>
+      <c r="AB13" s="12">
+        <f>0.06/0.47</f>
+        <v>0.1276595744680851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.76272727272727203</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.63454545454545397</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1314.7728129689301</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1646.94642585409</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.47529889869459002</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.43442260447803299</v>
+      </c>
+      <c r="H14" s="3">
+        <v>553.20361727975501</v>
+      </c>
+      <c r="I14" s="4">
+        <v>541.30448906501499</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.98090909090909095</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.90363636363636302</v>
+      </c>
+      <c r="L14" s="3">
+        <v>983.41559855579396</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1022.2837489556</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.370407883770349</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.38780567920608899</v>
+      </c>
+      <c r="P14" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>534.07459264335705</v>
+      </c>
+      <c r="R14" s="3">
+        <v>524.43860686109895</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.33636363636363598</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.31272727272727202</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3214.3730978803001</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3300.8432269728301</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.40906053437103901</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.35889872168089798</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>537.94601016126398</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>522.976707183499</v>
+      </c>
+      <c r="AA14" s="12">
+        <f>0.1/0.48</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AB14" s="12">
+        <f>0.08/0.43</f>
+        <v>0.18604651162790697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.72909090909090901</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.68636363636363595</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1384.3181375888701</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1470.3078444206801</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.48487850488327</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.422396341140238</v>
+      </c>
+      <c r="H15" s="3">
+        <v>562.91994726454902</v>
+      </c>
+      <c r="I15" s="4">
+        <v>552.64892428040503</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1.5327272727272701</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1.4172727272727199</v>
+      </c>
+      <c r="L15" s="3">
+        <v>609.98737495933005</v>
+      </c>
+      <c r="M15" s="3">
+        <v>676.26737275925302</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.43927828288230297</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.42018440651738198</v>
+      </c>
+      <c r="P15" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>528.68755991704302</v>
+      </c>
+      <c r="R15" s="3">
+        <v>504.87162879489301</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.39272727272727198</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.33818181818181797</v>
+      </c>
+      <c r="U15" s="3">
+        <v>2866.35682458366</v>
+      </c>
+      <c r="V15" s="3">
+        <v>3170.98022016192</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.51125648020638803</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.40004708805168498</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>567.96219117200098</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>526.17367165140899</v>
+      </c>
+      <c r="AA15" s="12">
+        <f>0.04/0.48</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AB15" s="12">
+        <f>0.07/0.42</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.6034999999999999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.4275000000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>629.25450617551508</v>
+      </c>
+      <c r="E16" s="3">
+        <v>819.32561808101127</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.4894636665620733</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.35551966837009663</v>
+      </c>
+      <c r="H16" s="3">
+        <v>615.67933837485839</v>
+      </c>
+      <c r="I16" s="4">
+        <v>614.2103402096518</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2.2580000000000005</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2.2711111111111109</v>
+      </c>
+      <c r="L16" s="3">
+        <v>510.69144822668392</v>
+      </c>
+      <c r="M16" s="3">
+        <v>481.92075078953883</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.47025855482215972</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.34431147779386695</v>
+      </c>
+      <c r="P16" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>646.16404378424033</v>
+      </c>
+      <c r="R16" s="3">
+        <v>624.48711531514982</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.83210526315789479</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.80352941176470594</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1419.908417835926</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1429.8238307180636</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.46623154986882376</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.45713842954300898</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>641.29914438408719</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>628.18019650954955</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.62199999999999989</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1713.60817826364</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1792.1314194221832</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.49131735187928294</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.49065414347288544</v>
+      </c>
+      <c r="H17" s="3">
+        <v>620.04768516503702</v>
+      </c>
+      <c r="I17" s="3">
+        <v>632.29289738632144</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.92099999999999993</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1202.7390236293663</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1375.5928674178444</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.62355269039471806</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.48862877688806544</v>
+      </c>
+      <c r="P17" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>603.26971718491166</v>
+      </c>
+      <c r="R17" s="3">
+        <v>619.41847944060214</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.51899999999999991</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2222.8939860983078</v>
+      </c>
+      <c r="V17" s="3">
+        <v>2249.8339035218141</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.51058192093408028</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.49717023697590879</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>669.9394641430215</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>673.50725539054304</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>4.0838729054896473E-2</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>2.3084810474060174E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B18" s="7">
         <v>0.94450000000000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C18" s="7">
         <v>0.95578947368421052</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D18" s="3">
         <v>967.18673149974268</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E18" s="3">
         <v>937.35631907730431</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F18" s="3">
         <v>0.49209855241056666</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G18" s="3">
         <v>0.42156025681691034</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H18" s="3">
         <v>500.05859139269933</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I18" s="4">
         <v>497.45566812106455</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J18" s="8">
         <v>1.2394736842105263</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K18" s="8">
         <v>1.2004999999999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L18" s="3">
         <v>742.9472879069732</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M18" s="3">
         <v>781.55010950230087</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N18" s="3">
         <v>0.46024054064926456</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O18" s="3">
         <v>0.42199555385880683</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P18" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>502.81035166935294</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R18" s="3">
         <v>499.21832654313499</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S18" s="3">
         <v>0.76526315789473698</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T18" s="3">
         <v>0.73894736842105269</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U18" s="3">
         <v>1185.6655110723398</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V18" s="3">
         <v>1226.7023669951905</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W18" s="3">
         <v>0.48223403544945587</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X18" s="3">
         <v>0.43012205831046246</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y18" s="3">
         <v>498.36009718242252</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z18" s="3">
         <v>501.93552680385926</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="AA18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B19" s="7">
         <v>1.0220000000000002</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C19" s="7">
         <v>0.98105263157894718</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D19" s="3">
         <v>997.79556205634344</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E19" s="3">
         <v>1026.8390445578866</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F19" s="3">
         <v>0.49324730229554214</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G19" s="3">
         <v>0.45551764231840475</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H19" s="3">
         <v>564.92609636768816</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I19" s="4">
         <v>560.62733081890804</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J19" s="8">
         <v>1.4624999999999999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K19" s="8">
         <v>1.4605882352941175</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L19" s="3">
         <v>709.39554525859785</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M19" s="3">
         <v>724.63222085136761</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N19" s="3">
         <v>0.4393748651176792</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O19" s="3">
         <v>0.40388115771357502</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P19" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
         <v>562.59839725054644</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R19" s="3">
         <v>559.02696436357076</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S19" s="3">
         <v>0.5568421052631578</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T19" s="3">
         <v>0.57444444444444454</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U19" s="3">
         <v>1857.5198232736889</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V19" s="3">
         <v>1793.3753163111185</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W19" s="3">
         <v>0.53800418922494886</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X19" s="3">
         <v>0.48345098277380882</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y19" s="3">
         <v>596.62773709059411</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z19" s="3">
         <v>586.83940472720224</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.0829411764705885</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.084705882352941</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1085.9455040823104</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1139.4643536830888</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.50488554364909199</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.36509381711779876</v>
-      </c>
-      <c r="H5" s="3">
-        <v>677.215273274531</v>
-      </c>
-      <c r="I5" s="3">
-        <v>659.22470327286351</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.1889473684210525</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.7884210526315791</v>
-      </c>
-      <c r="L5" s="3">
-        <v>481.38494045451512</v>
-      </c>
-      <c r="M5" s="3">
-        <v>628.66817457001378</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.42926455019874477</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.36357181547832707</v>
-      </c>
-      <c r="P5" s="3">
-        <v>662.49915848958608</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>650.44675923720933</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.5647368421052632</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0.55888888888888899</v>
-      </c>
-      <c r="T5" s="3">
-        <v>2216.2297444722299</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2174.1850189231491</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0.51734352907569892</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0.46406876951848891</v>
-      </c>
-      <c r="X5" s="3">
-        <v>711.74292067842828</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>698.4240329378307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.6034999999999999</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.4275000000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <v>629.25450617551508</v>
-      </c>
-      <c r="E6" s="3">
-        <v>819.32561808101127</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.4894636665620733</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.35551966837009663</v>
-      </c>
-      <c r="H6" s="3">
-        <v>615.67933837485839</v>
-      </c>
-      <c r="I6" s="4">
-        <v>614.2103402096518</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.2580000000000005</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.2711111111111109</v>
-      </c>
-      <c r="L6" s="3">
-        <v>510.69144822668392</v>
-      </c>
-      <c r="M6" s="3">
-        <v>481.92075078953883</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.47025855482215972</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.34431147779386695</v>
-      </c>
-      <c r="P6" s="3">
-        <v>646.16404378424033</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>624.48711531514982</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0.83210526315789479</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0.80352941176470594</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1419.908417835926</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1429.8238307180636</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0.46623154986882376</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0.45713842954300898</v>
-      </c>
-      <c r="X6" s="3">
-        <v>641.29914438408719</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>628.18019650954955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.0836842105263158</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.92894736842105252</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1047.6223590646084</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1189.3114127462434</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.52981663969416437</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.47743451507809159</v>
-      </c>
-      <c r="H7" s="3">
-        <v>625.22760446727352</v>
-      </c>
-      <c r="I7" s="4">
-        <v>597.64225899040002</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.8981818181818182</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.8715789473684212</v>
-      </c>
-      <c r="L7" s="3">
-        <v>606.00867608264423</v>
-      </c>
-      <c r="M7" s="3">
-        <v>581.17965511388002</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.51319169802278319</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.4415212670967894</v>
-      </c>
-      <c r="P7" s="3">
-        <v>643.964921874119</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>602.28662939362482</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0.59105263157894727</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.59368421052631581</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1963.9069801244214</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1888.9091237173975</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0.49314954069735684</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0.45675384665634516</v>
-      </c>
-      <c r="X7" s="3">
-        <v>662.63825605005195</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>632.89563637946617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.3178571428571428</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.1123076923076922</v>
-      </c>
-      <c r="D8" s="3">
-        <v>689.80710014532815</v>
-      </c>
-      <c r="E8" s="3">
-        <v>790.07807650325299</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.59169455184219233</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.42561676720726604</v>
-      </c>
-      <c r="H8" s="3">
-        <v>508.81874485256083</v>
-      </c>
-      <c r="I8" s="3">
-        <v>507.24045254969087</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.8433333333333335</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.8843750000000001</v>
-      </c>
-      <c r="L8" s="3">
-        <v>519.15359961020113</v>
-      </c>
-      <c r="M8" s="3">
-        <v>423.5098419949436</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.55059331779540666</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.37194771858705494</v>
-      </c>
-      <c r="P8" s="3">
-        <v>515.2956372315947</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>487.03790017456129</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0.64277777777777778</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.80157894736842095</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1260.6082317731141</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1079.7288062245714</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0.54825123894143313</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0.4585682146868022</v>
-      </c>
-      <c r="X8" s="3">
-        <v>463.80039875156774</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>430.63104791359837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.7254999999999996</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.7047368421052631</v>
-      </c>
-      <c r="D9" s="3">
-        <v>701.1750190540381</v>
-      </c>
-      <c r="E9" s="3">
-        <v>748.58155273926695</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.53190506423675565</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.44803872299573638</v>
-      </c>
-      <c r="H9" s="3">
-        <v>663.6988985411823</v>
-      </c>
-      <c r="I9" s="4">
-        <v>675.23845882716557</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2.4592857142857141</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.37</v>
-      </c>
-      <c r="L9" s="3">
-        <v>470.78844552260449</v>
-      </c>
-      <c r="M9" s="3">
-        <v>475.89563100608837</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.48908842460295449</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.4488471118521361</v>
-      </c>
-      <c r="P9" s="3">
-        <v>671.00702765725407</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>666.623601824964</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1.0536842105263156</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1062.3870357118917</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1107.7773359860471</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0.55456236683022875</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0.47170736318971523</v>
-      </c>
-      <c r="X9" s="3">
-        <v>663.74868045528342</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>679.86321022646518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.61105263157894718</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.62052631578947359</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1973.1804785805411</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1813.3586198844205</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.50813152374502901</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.43206186073815261</v>
-      </c>
-      <c r="H10" s="3">
-        <v>697.47009802674484</v>
-      </c>
-      <c r="I10" s="4">
-        <v>644.37037093793242</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.69250000000000012</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.67899999999999994</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1752.0178974041912</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1705.3033035435735</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.52062237773123921</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.41093672750554344</v>
-      </c>
-      <c r="P10" s="3">
-        <v>680.41499878457023</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>646.50628662793349</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0.57550000000000012</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0.56722222222222241</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2112.5170817189069</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1983.9839388753276</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0.51863121919544897</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0.47110288346017554</v>
-      </c>
-      <c r="X10" s="3">
-        <v>690.05866182284342</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>657.25200711781872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.99071428571428555</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1133.0947970528537</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1146.6728122736154</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.44345749711391835</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.38250911510000207</v>
-      </c>
-      <c r="H11" s="3">
-        <v>593.41130164063475</v>
-      </c>
-      <c r="I11" s="3">
-        <v>568.60171889206038</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1.8637499999999998</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1.8776470588235294</v>
-      </c>
-      <c r="L11" s="3">
-        <v>537.96189767482713</v>
-      </c>
-      <c r="M11" s="3">
-        <v>518.20573759706599</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.41338497822655379</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.2983999298284275</v>
-      </c>
-      <c r="P11" s="3">
-        <v>579.98356372182525</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>565.3196572826605</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.82368421052631569</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0.6942105263157895</v>
-      </c>
-      <c r="T11" s="3">
-        <v>1378.7402468124449</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1512.280150587811</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0.5207964085669754</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0.43813487250952327</v>
-      </c>
-      <c r="X11" s="3">
-        <v>590.71251916936149</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>583.59820399679404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.84894736842105256</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.83368421052631569</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1250.2977224665763</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1278.3732252051991</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.51476003796521419</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.45837618953085268</v>
-      </c>
-      <c r="H12" s="3">
-        <v>556.57601352824975</v>
-      </c>
-      <c r="I12" s="4">
-        <v>581.74666413922898</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1.3768421052631579</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.4326315789473685</v>
-      </c>
-      <c r="L12" s="3">
-        <v>735.24700474821429</v>
-      </c>
-      <c r="M12" s="3">
-        <v>788.09081147495101</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.50555185188215879</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.39310471683287812</v>
-      </c>
-      <c r="P12" s="3">
-        <v>577.30937855084369</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>588.64316310522736</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0.5747368421052631</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0.58421052631578951</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1781.0895775031961</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1824.4438161789435</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0.49600569309264425</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0.45230931044065742</v>
-      </c>
-      <c r="X12" s="3">
-        <v>586.57361899822229</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>609.37923132283129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.3289473684210529</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.2105555555555554</v>
-      </c>
-      <c r="D13" s="3">
-        <v>783.16310473326894</v>
-      </c>
-      <c r="E13" s="3">
-        <v>834.53792361702324</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.51740056483859143</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.41655559516672025</v>
-      </c>
-      <c r="H13" s="3">
-        <v>598.45920800793203</v>
-      </c>
-      <c r="I13" s="4">
-        <v>579.12381266794637</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.8539999999999999</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.8966666666666667</v>
-      </c>
-      <c r="L13" s="3">
-        <v>555.75176073487296</v>
-      </c>
-      <c r="M13" s="3">
-        <v>553.67673832847981</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.46125356521785443</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.32551559415550596</v>
-      </c>
-      <c r="P13" s="3">
-        <v>626.70310520250325</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>602.40511752610712</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0.61421052631578965</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0.5910526315789475</v>
-      </c>
-      <c r="T13" s="3">
-        <v>1821.9106816880008</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1847.4863444529826</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0.51985902045375831</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0.45032420922036798</v>
-      </c>
-      <c r="X13" s="3">
-        <v>629.38248438997732</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>625.69543418857734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.7126315789473685</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.69277777777777783</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1599.2788997355501</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1656.5055564225902</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.50561761963073315</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.45685498538289737</v>
-      </c>
-      <c r="H14" s="3">
-        <v>635.50573235228921</v>
-      </c>
-      <c r="I14" s="4">
-        <v>659.46586547726849</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.0635294117647058</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.1794444444444447</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1103.5067020578458</v>
-      </c>
-      <c r="M14" s="3">
-        <v>960.72572794833025</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.5119673943331664</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.46463282801412681</v>
-      </c>
-      <c r="P14" s="3">
-        <v>636.95646083099825</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>640.65413908626829</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0.56894736842105276</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0.55157894736842106</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2035.8663760130298</v>
-      </c>
-      <c r="U14" s="3">
-        <v>2166.3313711203846</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0.49977693070224261</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.41945966729742007</v>
-      </c>
-      <c r="X14" s="3">
-        <v>665.57994787783684</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>694.02392607922388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.023157894736842</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.0326315789473683</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1113.1190774501883</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1142.7240395280608</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.50252491853913783</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.43110869648881006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>634.75687852211058</v>
-      </c>
-      <c r="I15" s="4">
-        <v>629.57933954842372</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1.59</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.4606666666666663</v>
-      </c>
-      <c r="L15" s="3">
-        <v>792.23247471922525</v>
-      </c>
-      <c r="M15" s="3">
-        <v>807.29197913633584</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.37076232905890888</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.35949037417950841</v>
-      </c>
-      <c r="P15" s="3">
-        <v>634.8280141335822</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>638.55314941493998</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.59263157894736862</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.56800000000000006</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1980.306427330416</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2101.3961241717598</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0.48023866662414633</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0.44212960093127707</v>
-      </c>
-      <c r="X15" s="3">
-        <v>662.76451141566724</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>682.71146952546644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.4369999999999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="3">
-        <v>872.54127274993903</v>
-      </c>
-      <c r="E16" s="3">
-        <v>932.9111117529186</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.46622168204074715</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.42779494001538854</v>
-      </c>
-      <c r="H16" s="3">
-        <v>669.85263858025348</v>
-      </c>
-      <c r="I16" s="4">
-        <v>661.23180198978503</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.7105263157894737</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1.6404999999999998</v>
-      </c>
-      <c r="L16" s="3">
-        <v>723.2756292670025</v>
-      </c>
-      <c r="M16" s="3">
-        <v>693.6477823247169</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.4595325625927334</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0.4691074182190379</v>
-      </c>
-      <c r="P16" s="3">
-        <v>668.47309039920128</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>670.56016579296704</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0.87894736842105281</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.853157894736842</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1477.3710675530483</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1475.3558526076238</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0.44250081176133627</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0.42234582285391919</v>
-      </c>
-      <c r="X16" s="3">
-        <v>680.004167977826</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>676.70588812050948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="AA19" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B20" s="7">
         <v>1.190625</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C20" s="7">
         <v>1.1642857142857144</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D20" s="3">
         <v>809.11521070875926</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E20" s="3">
         <v>849.04309097495752</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F20" s="3">
         <v>0.49686658564259273</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G20" s="3">
         <v>0.42496536432654591</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H20" s="3">
         <v>546.98258813628979</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I20" s="4">
         <v>550.73446770886858</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J20" s="12">
         <v>2.2866666666666666</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K20" s="12">
         <v>2.1244444444444444</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L20" s="3">
         <v>373.53038044442769</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M20" s="3">
         <v>418.49980738488324</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N20" s="3">
         <v>0.52366849515637959</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O20" s="3">
         <v>0.35885162095247708</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P20" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>558.4118516402857</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R20" s="3">
         <v>564.4660931241209</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S20" s="3">
         <v>0.60842105263157908</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T20" s="3">
         <v>0.56210526315789477</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U20" s="3">
         <v>1694.3954132207264</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V20" s="3">
         <v>1848.0654945087426</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W20" s="3">
         <v>0.50536670148194107</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X20" s="3">
         <v>0.45901054304403022</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y20" s="3">
         <v>590.86159866002833</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z20" s="3">
         <v>601.42424071661947</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1.3436842105263158</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.1563157894736844</v>
-      </c>
-      <c r="D18" s="3">
-        <v>891.96634837013767</v>
-      </c>
-      <c r="E18" s="3">
-        <v>987.88951134231377</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.47284395496530618</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.39856754271288286</v>
-      </c>
-      <c r="H18" s="3">
-        <v>685.30680525357434</v>
-      </c>
-      <c r="I18" s="4">
-        <v>643.67130143014992</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1.9536363636363638</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2.2433333333333336</v>
-      </c>
-      <c r="L18" s="3">
-        <v>546.14655307257044</v>
-      </c>
-      <c r="M18" s="3">
-        <v>511.95826679229384</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0.44566305743555323</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.26477227950884252</v>
-      </c>
-      <c r="P18" s="3">
-        <v>678.38768443865149</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>648.44848603034211</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0.57105263157894737</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2230.1183517319919</v>
-      </c>
-      <c r="U18" s="3">
-        <v>2269.2321509126687</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0.53069453141049827</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0.4632977848166841</v>
-      </c>
-      <c r="X18" s="3">
-        <v>759.40406999995798</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>740.63388385629128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.88263157894736843</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.89049999999999996</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1301.5812297132222</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1225.3898269150061</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.55360083692891293</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.45308892689751323</v>
-      </c>
-      <c r="H19" s="3">
-        <v>642.12355203387358</v>
-      </c>
-      <c r="I19" s="4">
-        <v>612.67121239235485</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.0689473684210526</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1.091</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1060.6756996145089</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1047.505591754875</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.52098768128799378</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0.46543145266599872</v>
-      </c>
-      <c r="P19" s="3">
-        <v>629.70036780569387</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>611.2124403931972</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0.67315789473684207</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1684.5052530633902</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1653.0159313992838</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0.55984341733582532</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0.46607808718489369</v>
-      </c>
-      <c r="X19" s="3">
-        <v>682.17245805266396</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>640.86916412574431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1.0889473684210527</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.96947368421052638</v>
-      </c>
-      <c r="D20" s="3">
-        <v>885.33309646604346</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1195.0078946113424</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.42547713256049563</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.36905610037703962</v>
-      </c>
-      <c r="H20" s="3">
-        <v>554.971183567347</v>
-      </c>
-      <c r="I20" s="4">
-        <v>599.09424887076841</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1.9238888888888885</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.6695</v>
-      </c>
-      <c r="L20" s="3">
-        <v>536.98116999916022</v>
-      </c>
-      <c r="M20" s="3">
-        <v>681.33163674887953</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.42459182958209496</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.34145275804688041</v>
-      </c>
-      <c r="P20" s="3">
-        <v>580.7212182355247</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>596.49334995091249</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0.70666666666666655</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0.63157894736842091</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1440.3689967371761</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1772.0877545097067</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0.40305808865155279</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0.37438441937149397</v>
-      </c>
-      <c r="X20" s="3">
-        <v>582.64305901318835</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>630.57219319116484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA20" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="13">
         <v>1.1053846153846156</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.80499999999999994</v>
+      <c r="C21" s="13">
+        <v>0.75357142857142845</v>
       </c>
       <c r="D21" s="3">
         <v>1045.5072734332243</v>
@@ -6438,10 +6781,10 @@
       <c r="I21" s="3">
         <v>631.86599566603684</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="12">
         <v>1.5770588235294121</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="12">
         <v>1.4374999999999998</v>
       </c>
       <c r="L21" s="3">
@@ -6456,2196 +6799,2544 @@
       <c r="O21" s="3">
         <v>0.36356656534320714</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>657.81793637574583</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>613.91850767809922</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>0.5938888888888888</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>0.55944444444444452</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2037.8968624600304</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2070.7350227061384</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>0.48175108526489796</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>0.46179616427401571</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>691.44295638303549</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>673.66883259188921</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA21" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.0368421052631578</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.85649999999999993</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1194.7740459716733</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1305.4429372718753</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.50185888146647506</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.44624828553651169</v>
+      </c>
+      <c r="H22" s="3">
+        <v>659.44859110923755</v>
+      </c>
+      <c r="I22" s="4">
+        <v>624.8370520505697</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1.4424999999999999</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1.2673684210526315</v>
+      </c>
+      <c r="L22" s="3">
+        <v>904.0012417704977</v>
+      </c>
+      <c r="M22" s="3">
+        <v>864.19660890293528</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.43902122072498156</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.39664120742814207</v>
+      </c>
+      <c r="P22" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>671.09542018628417</v>
+      </c>
+      <c r="R22" s="3">
+        <v>620.29906940339981</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.65333333333333321</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.60578947368421066</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1946.0488712013298</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1908.4193217873769</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.49878010944021811</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.44832760530279298</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>721.90122085194173</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>645.3832129936003</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1.023157894736842</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.0326315789473683</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1113.1190774501883</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1142.7240395280608</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.50252491853913783</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.43110869648881006</v>
+      </c>
+      <c r="H23" s="3">
+        <v>634.75687852211058</v>
+      </c>
+      <c r="I23" s="3">
+        <v>629.57933954842372</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1.59</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1.4606666666666663</v>
+      </c>
+      <c r="L23" s="3">
+        <v>792.23247471922525</v>
+      </c>
+      <c r="M23" s="3">
+        <v>807.29197913633584</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.37076232905890888</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.35949037417950841</v>
+      </c>
+      <c r="P23" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>634.8280141335822</v>
+      </c>
+      <c r="R23" s="3">
+        <v>638.55314941493998</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.59263157894736862</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.56800000000000006</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1980.306427330416</v>
+      </c>
+      <c r="V23" s="3">
+        <v>2101.3961241717598</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.48023866662414633</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.44212960093127707</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>662.76451141566724</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>682.71146952546644</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.81727272727272704</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.63818181818181796</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1220.1574648394401</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1506.9460183946001</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.50480675631976601</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.46197239345693097</v>
+      </c>
+      <c r="H24" s="3">
+        <v>551.46313685385701</v>
+      </c>
+      <c r="I24" s="4">
+        <v>544.70002259381397</v>
+      </c>
+      <c r="J24" s="12">
+        <v>1.1354545454545399</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.93818181818181801</v>
+      </c>
+      <c r="L24" s="3">
+        <v>837.70154322584597</v>
+      </c>
+      <c r="M24" s="3">
+        <v>977.56946119366296</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.58071485243227305</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.54518881727498203</v>
+      </c>
+      <c r="P24" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>519.84297167899001</v>
+      </c>
+      <c r="R24" s="3">
+        <v>521.80618158929997</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.34909090909090901</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2857.0731518348798</v>
+      </c>
+      <c r="V24" s="3">
+        <v>3228.9276639480099</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.39606604742948698</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.330404714562468</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>536.913267385582</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>542.09771782953203</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>0.1/0.5</f>
+        <v>0.2</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>0.05/0.46</f>
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.0829411764705885</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.084705882352941</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1085.9455040823104</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1139.4643536830888</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.50488554364909199</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.36509381711779876</v>
+      </c>
+      <c r="H25" s="3">
+        <v>677.215273274531</v>
+      </c>
+      <c r="I25" s="4">
+        <v>659.22470327286351</v>
+      </c>
+      <c r="J25" s="12">
+        <v>2.1889473684210525</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1.7884210526315791</v>
+      </c>
+      <c r="L25" s="3">
+        <v>481.38494045451512</v>
+      </c>
+      <c r="M25" s="3">
+        <v>628.66817457001378</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.42926455019874477</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.36357181547832707</v>
+      </c>
+      <c r="P25" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>662.49915848958608</v>
+      </c>
+      <c r="R25" s="3">
+        <v>650.44675923720933</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.5647368421052632</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2216.2297444722299</v>
+      </c>
+      <c r="V25" s="3">
+        <v>2174.1850189231491</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.51734352907569892</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.46406876951848891</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>711.74292067842828</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>698.4240329378307</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.7126315789473685</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.69277777777777783</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1599.2788997355501</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1656.5055564225902</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.50561761963073315</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.45685498538289737</v>
+      </c>
+      <c r="H26" s="3">
+        <v>635.50573235228921</v>
+      </c>
+      <c r="I26" s="4">
+        <v>659.46586547726849</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1.0635294117647058</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1.1794444444444447</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1103.5067020578458</v>
+      </c>
+      <c r="M26" s="3">
+        <v>960.72572794833025</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.5119673943331664</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.46463282801412681</v>
+      </c>
+      <c r="P26" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>636.95646083099825</v>
+      </c>
+      <c r="R26" s="3">
+        <v>640.65413908626829</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.56894736842105276</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.55157894736842106</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2035.8663760130298</v>
+      </c>
+      <c r="V26" s="3">
+        <v>2166.3313711203846</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.49977693070224261</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.41945966729742007</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>665.57994787783684</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>694.02392607922388</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.61105263157894718</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.62052631578947359</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1973.1804785805411</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1813.3586198844205</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.50813152374502901</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.43206186073815261</v>
+      </c>
+      <c r="H27" s="3">
+        <v>697.47009802674484</v>
+      </c>
+      <c r="I27" s="4">
+        <v>644.37037093793242</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.69250000000000012</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.67899999999999994</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1752.0178974041912</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1705.3033035435735</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.52062237773123921</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.41093672750554344</v>
+      </c>
+      <c r="P27" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>680.41499878457023</v>
+      </c>
+      <c r="R27" s="3">
+        <v>646.50628662793349</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.57550000000000012</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.56722222222222241</v>
+      </c>
+      <c r="U27" s="3">
+        <v>2112.5170817189069</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1983.9839388753276</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.51863121919544897</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.47110288346017554</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>690.05866182284342</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>657.25200711781872</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.75944444444444459</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.73777777777777775</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1399.6735074417538</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1388.5863972516215</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.51076967054769962</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.43080615323632065</v>
+      </c>
+      <c r="H28" s="3">
+        <v>596.15407749160715</v>
+      </c>
+      <c r="I28" s="4">
+        <v>573.6335139327731</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.77263157894736845</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1419.7129714650525</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1358.6472143806216</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.54222674200709731</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.42437712833889518</v>
+      </c>
+      <c r="P28" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>602.69993176166622</v>
+      </c>
+      <c r="R28" s="3">
+        <v>581.64031086942202</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.76842105263157889</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1417.7228327523721</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1328.8867779434204</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.5134030082772878</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.41957712152853854</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>595.24302160681987</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>575.49777081478169</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.84894736842105256</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.83368421052631569</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1250.2977224665763</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1278.3732252051991</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.51476003796521419</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.45837618953085268</v>
+      </c>
+      <c r="H29" s="3">
+        <v>556.57601352824975</v>
+      </c>
+      <c r="I29" s="4">
+        <v>581.74666413922898</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.3768421052631579</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1.4326315789473685</v>
+      </c>
+      <c r="L29" s="3">
+        <v>735.24700474821429</v>
+      </c>
+      <c r="M29" s="3">
+        <v>788.09081147495101</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.50555185188215879</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.39310471683287812</v>
+      </c>
+      <c r="P29" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>577.30937855084369</v>
+      </c>
+      <c r="R29" s="3">
+        <v>588.64316310522736</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.5747368421052631</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.58421052631578951</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1781.0895775031961</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1824.4438161789435</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.49600569309264425</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.45230931044065742</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>586.57361899822229</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>609.37923132283129</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AB29" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.67363636363636303</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.61090909090908996</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1446.34261822962</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1575.91649783301</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.51506742415833295</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.486556883670961</v>
+      </c>
+      <c r="H30" s="3">
+        <v>524.95577069665103</v>
+      </c>
+      <c r="I30" s="4">
+        <v>530.41963967247</v>
+      </c>
+      <c r="J30" s="12">
+        <v>3.53727272727272</v>
+      </c>
+      <c r="K30" s="12">
+        <v>2.9863636363636301</v>
+      </c>
+      <c r="L30" s="3">
+        <v>270.478770446917</v>
+      </c>
+      <c r="M30" s="3">
+        <v>287.29222306624303</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.46977590187877399</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.52643923558928396</v>
+      </c>
+      <c r="P30" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>515.79154216518805</v>
+      </c>
+      <c r="R30" s="3">
+        <v>500.22009111493099</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0.34818181818181798</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0.311818181818181</v>
+      </c>
+      <c r="U30" s="6">
+        <v>2877.97626231711</v>
+      </c>
+      <c r="V30" s="6">
+        <v>2958.3341282925999</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.52033857590559995</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.50134610035926397</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>526.77081221176297</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>517.50935144871198</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>0.06/0.52</f>
+        <v>0.11538461538461538</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>0.05/0.49</f>
+        <v>0.10204081632653061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.70727272727272705</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.66909090909090896</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1503.81176829994</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1389.0998229147699</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.51589917947015296</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.41260971320350998</v>
+      </c>
+      <c r="H31" s="3">
+        <v>564.10919649602397</v>
+      </c>
+      <c r="I31" s="4">
+        <v>549.56398045535605</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.0418181818181802</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2.5345454545454502</v>
+      </c>
+      <c r="L31" s="3">
+        <v>293.82488266705502</v>
+      </c>
+      <c r="M31" s="3">
+        <v>350.02806937089298</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.34571964585083098</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.25725624828527799</v>
+      </c>
+      <c r="P31" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>534.74962707048701</v>
+      </c>
+      <c r="R31" s="3">
+        <v>527.58355618700898</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.39636363636363597</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.38727272727272699</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2784.722543204</v>
+      </c>
+      <c r="V31" s="3">
+        <v>2666.2952611625801</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.52158007354958502</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.43257186096627798</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>550.02143820122001</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>533.30108401133703</v>
+      </c>
+      <c r="AA31" s="3">
+        <f>0.04/0.52</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB31" s="3">
+        <f>0.07/0.41</f>
+        <v>0.17073170731707318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.3289473684210529</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1.2105555555555554</v>
+      </c>
+      <c r="D32" s="3">
+        <v>783.16310473326894</v>
+      </c>
+      <c r="E32" s="3">
+        <v>834.53792361702324</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.51740056483859143</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.41655559516672025</v>
+      </c>
+      <c r="H32" s="3">
+        <v>598.45920800793203</v>
+      </c>
+      <c r="I32" s="3">
+        <v>579.12381266794637</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1.8539999999999999</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.8966666666666667</v>
+      </c>
+      <c r="L32" s="3">
+        <v>555.75176073487296</v>
+      </c>
+      <c r="M32" s="3">
+        <v>553.67673832847981</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.46125356521785443</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.32551559415550596</v>
+      </c>
+      <c r="P32" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>626.70310520250325</v>
+      </c>
+      <c r="R32" s="3">
+        <v>602.40511752610712</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.61421052631578965</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.5910526315789475</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1821.9106816880008</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1847.4863444529826</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0.51985902045375831</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0.45032420922036798</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>629.38248438997732</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>625.69543418857734</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.0638888888888891</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.92894736842105252</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1047.6223590646084</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1189.3114127462434</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.52981663969416437</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.47743451507809159</v>
+      </c>
+      <c r="H33" s="3">
+        <v>625.22760446727352</v>
+      </c>
+      <c r="I33" s="3">
+        <v>597.64225899040002</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.8981818181818182</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.8715789473684212</v>
+      </c>
+      <c r="L33" s="3">
+        <v>606.00867608264423</v>
+      </c>
+      <c r="M33" s="3">
+        <v>581.17965511388002</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.51319169802278319</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.4415212670967894</v>
+      </c>
+      <c r="P33" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>643.964921874119</v>
+      </c>
+      <c r="R33" s="3">
+        <v>602.28662939362482</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0.59105263157894727</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0.59368421052631581</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1963.9069801244214</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1888.9091237173975</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.49314954069735684</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0.45675384665634516</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>662.63825605005195</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>632.89563637946617</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.7254999999999996</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1.7711764705882356</v>
+      </c>
+      <c r="D34" s="3">
+        <v>701.1750190540381</v>
+      </c>
+      <c r="E34" s="3">
+        <v>748.58155273926695</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.53190506423675565</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.44803872299573638</v>
+      </c>
+      <c r="H34" s="3">
+        <v>663.6988985411823</v>
+      </c>
+      <c r="I34" s="3">
+        <v>675.23845882716557</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.4592857142857141</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="L34" s="3">
+        <v>470.78844552260449</v>
+      </c>
+      <c r="M34" s="3">
+        <v>475.89563100608837</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.48908842460295449</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.4488471118521361</v>
+      </c>
+      <c r="P34" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>671.00702765725407</v>
+      </c>
+      <c r="R34" s="3">
+        <v>666.623601824964</v>
+      </c>
+      <c r="S34" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1.0536842105263156</v>
+      </c>
+      <c r="U34" s="3">
+        <v>1062.3870357118917</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1107.7773359860471</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0.55456236683022875</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0.47170736318971523</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>663.74868045528342</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>679.86321022646518</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.86421052631578954</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.73526315789473673</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1250.658709058607</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1523.4006888819501</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.53911527836802575</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.4648631100663505</v>
+      </c>
+      <c r="H35" s="3">
+        <v>595.46964598020622</v>
+      </c>
+      <c r="I35" s="3">
+        <v>617.64118612539608</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1.3257894736842109</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.1994736842105262</v>
+      </c>
+      <c r="L35" s="3">
+        <v>764.99663984767994</v>
+      </c>
+      <c r="M35" s="3">
+        <v>917.30057103946569</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.42169797539570508</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.40212206665994799</v>
+      </c>
+      <c r="P35" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>592.80665762015485</v>
+      </c>
+      <c r="R35" s="3">
+        <v>611.93708091723295</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0.57210526315789467</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1934.5825363346441</v>
+      </c>
+      <c r="V35" s="3">
+        <v>2018.4858844627897</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.50872992351376944</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.46134305895860739</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>643.14200700429296</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>643.49168534215755</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.96944444444444422</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1271.2325159410002</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1217.7589646512188</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.54953747452026191</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.52817749867082353</v>
+      </c>
+      <c r="H36" s="3">
+        <v>670.70153969556884</v>
+      </c>
+      <c r="I36" s="3">
+        <v>664.61850093212433</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1.731052631578947</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1.8456249999999996</v>
+      </c>
+      <c r="L36" s="3">
+        <v>650.98743951283132</v>
+      </c>
+      <c r="M36" s="3">
+        <v>578.55353096208137</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.61535407617839588</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.51645598223847033</v>
+      </c>
+      <c r="P36" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>672.23607792970188</v>
+      </c>
+      <c r="R36" s="3">
+        <v>678.9293828724177</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0.56684210526315781</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0.56842105263157894</v>
+      </c>
+      <c r="U36" s="3">
+        <v>2179.0798469080337</v>
+      </c>
+      <c r="V36" s="3">
+        <v>2192.9977547467647</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.5271663235423989</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.50483645957981038</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>707.15153455240511</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>709.696031757887</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1.3314285714285714</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1.1626666666666665</v>
+      </c>
+      <c r="D37" s="3">
+        <v>806.8263059381328</v>
+      </c>
+      <c r="E37" s="3">
+        <v>899.2075354706011</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.55038428047825905</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.43800607394578134</v>
+      </c>
+      <c r="H37" s="3">
+        <v>603.24789785625933</v>
+      </c>
+      <c r="I37" s="3">
+        <v>599.50614611780509</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1.7013333333333336</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.4068421052631579</v>
+      </c>
+      <c r="L37" s="3">
+        <v>596.03463348497633</v>
+      </c>
+      <c r="M37" s="3">
+        <v>748.64250208685962</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.53052684080755053</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.4114875286507404</v>
+      </c>
+      <c r="P37" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>603.3388533182349</v>
+      </c>
+      <c r="R37" s="3">
+        <v>604.53594103691682</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0.69684210526315782</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0.70111111111111113</v>
+      </c>
+      <c r="U37" s="3">
+        <v>1583.7508824836823</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1547.7649275517526</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.58994388494480188</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.47874424850480723</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>629.77910921953105</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>607.37759849407337</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.78578947368421048</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.78368421052631587</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1342.1276932087599</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1325.3039996556927</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.55226510564642151</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.41845574081640963</v>
+      </c>
+      <c r="H38" s="3">
+        <v>603.1587745586005</v>
+      </c>
+      <c r="I38" s="3">
+        <v>600.61451970895769</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.86263157894736842</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.86789473684210516</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1215.2694229675917</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1232.1416921104167</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.53321019245455337</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.42600063486879963</v>
+      </c>
+      <c r="P38" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>602.62926567601596</v>
+      </c>
+      <c r="R38" s="3">
+        <v>598.52517925194252</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0.63833333333333331</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.63105263157894742</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1667.6613586870492</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1709.75341334631</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0.54034668925480545</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0.46699920030382536</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>613.4557875150515</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>606.87851200048192</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.88263157894736843</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1301.5812297132222</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1225.3898269150061</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.55360083692891293</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.45308892689751323</v>
+      </c>
+      <c r="H39" s="3">
+        <v>642.12355203387358</v>
+      </c>
+      <c r="I39" s="3">
+        <v>612.67121239235485</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1.0689473684210526</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1.091</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1060.6756996145089</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1047.505591754875</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.52098768128799378</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.46543145266599872</v>
+      </c>
+      <c r="P39" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>629.70036780569387</v>
+      </c>
+      <c r="R39" s="3">
+        <v>611.2124403931972</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0.67315789473684207</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1684.5052530633902</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1653.0159313992838</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0.55984341733582532</v>
+      </c>
+      <c r="X39" s="3">
+        <v>0.46607808718489369</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>682.17245805266396</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>640.86916412574431</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B40" s="7">
         <v>1.2252631578947368</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C40" s="7">
         <v>1.0231578947368423</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D40" s="3">
         <v>867.64086620606895</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E40" s="3">
         <v>1047.7176535186059</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F40" s="3">
         <v>0.58771529662529198</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G40" s="3">
         <v>0.54653922567344349</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H40" s="3">
         <v>570.45816812008877</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I40" s="3">
         <v>600.21117506970018</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J40" s="3">
         <v>1.7006249999999996</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K40" s="3">
         <v>1.6711111111111112</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L40" s="3">
         <v>550.01423312725296</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M40" s="3">
         <v>596.18609522110182</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N40" s="3">
         <v>0.54287403846095006</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O40" s="3">
         <v>0.4619460243566143</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P40" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
         <v>596.40132352217745</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R40" s="3">
         <v>607.5860938406671</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S40" s="3">
         <v>0.65421052631578946</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T40" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U40" s="3">
         <v>1683.5974031808066</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V40" s="3">
         <v>1770.402581455799</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W40" s="3">
         <v>0.54726192352717073</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X40" s="3">
         <v>0.50290076749457235</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y40" s="3">
         <v>623.08532558601314</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z40" s="3">
         <v>615.81445228744485</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.3066666666666669</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.191875</v>
-      </c>
-      <c r="D23" s="3">
-        <v>806.8263059381328</v>
-      </c>
-      <c r="E23" s="3">
-        <v>899.2075354706011</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.55038428047825905</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.43800607394578134</v>
-      </c>
-      <c r="H23" s="3">
-        <v>603.24789785625933</v>
-      </c>
-      <c r="I23" s="3">
-        <v>599.50614611780509</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.7013333333333336</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1.4068421052631579</v>
-      </c>
-      <c r="L23" s="3">
-        <v>596.03463348497633</v>
-      </c>
-      <c r="M23" s="3">
-        <v>748.64250208685962</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0.53052684080755053</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.4114875286507404</v>
-      </c>
-      <c r="P23" s="3">
-        <v>603.3388533182349</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>604.53594103691682</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0.69684210526315782</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0.70111111111111113</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1583.7508824836823</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1547.7649275517526</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0.58994388494480188</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0.47874424850480723</v>
-      </c>
-      <c r="X23" s="3">
-        <v>629.77910921953105</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>607.37759849407337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.0368421052631578</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.85649999999999993</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1194.7740459716733</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1305.4429372718753</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.50185888146647506</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.44624828553651169</v>
-      </c>
-      <c r="H24" s="3">
-        <v>659.44859110923755</v>
-      </c>
-      <c r="I24" s="4">
-        <v>624.8370520505697</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1.4424999999999999</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1.2673684210526315</v>
-      </c>
-      <c r="L24" s="3">
-        <v>904.0012417704977</v>
-      </c>
-      <c r="M24" s="3">
-        <v>864.19660890293528</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0.43902122072498156</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.39664120742814207</v>
-      </c>
-      <c r="P24" s="3">
-        <v>671.09542018628417</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>620.29906940339981</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0.65333333333333321</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0.60578947368421066</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1946.0488712013298</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1908.4193217873769</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0.49878010944021811</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0.44832760530279298</v>
-      </c>
-      <c r="X24" s="3">
-        <v>721.90122085194173</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>645.3832129936003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.87200000000000011</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.81473684210526309</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1348.4944819372413</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1338.7221292390745</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.46582334044054513</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.37040630815051878</v>
-      </c>
-      <c r="H25" s="3">
-        <v>606.17173335696032</v>
-      </c>
-      <c r="I25" s="4">
-        <v>585.52882601107842</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.94157894736842085</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1.0190000000000001</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1137.4768604860501</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1214.3477081697872</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0.42908774431801983</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0.36043130213888225</v>
-      </c>
-      <c r="P25" s="3">
-        <v>568.07985389528312</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>622.99502078118758</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0.6852631578947368</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0.70150000000000001</v>
-      </c>
-      <c r="T25" s="3">
-        <v>1638.7039318735265</v>
-      </c>
-      <c r="U25" s="3">
-        <v>1625.5184406389731</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0.48891746058890739</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0.37960631550417773</v>
-      </c>
-      <c r="X25" s="3">
-        <v>631.65881812933037</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>648.71889649431478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1.3574999999999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <v>678.64223668337308</v>
-      </c>
-      <c r="E26" s="3">
-        <v>836.53423290979072</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.47104516806907304</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.47563500279625009</v>
-      </c>
-      <c r="H26" s="3">
-        <v>557.76862172314577</v>
-      </c>
-      <c r="I26" s="4">
-        <v>558.25200845732491</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1.9829411764705878</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.9424999999999999</v>
-      </c>
-      <c r="L26" s="3">
-        <v>448.83729968674936</v>
-      </c>
-      <c r="M26" s="3">
-        <v>480.41018230196863</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0.54882973966864956</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0.39400860055563275</v>
-      </c>
-      <c r="P26" s="3">
-        <v>560.61649039274323</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>561.25398351365016</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0.62899999999999989</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0.60210526315789459</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1651.423325728892</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1713.799379229032</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0.49091626348720324</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0.46594927531713443</v>
-      </c>
-      <c r="X26" s="3">
-        <v>595.12416884760046</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>594.34697745961137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.75944444444444459</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.73777777777777775</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1399.6735074417538</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1388.5863972516215</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.51076967054769962</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.43080615323632065</v>
-      </c>
-      <c r="H27" s="3">
-        <v>596.15407749160715</v>
-      </c>
-      <c r="I27" s="4">
-        <v>573.6335139327731</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0.77263157894736845</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1419.7129714650525</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1358.6472143806216</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.54222674200709731</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.42437712833889518</v>
-      </c>
-      <c r="P27" s="3">
-        <v>602.69993176166622</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>581.64031086942202</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0.76842105263157889</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1417.7228327523721</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1328.8867779434204</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0.5134030082772878</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.41957712152853854</v>
-      </c>
-      <c r="X27" s="3">
-        <v>595.24302160681987</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>575.49777081478169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.86421052631578954</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.73526315789473673</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1250.658709058607</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1523.4006888819501</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.53911527836802575</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.4648631100663505</v>
-      </c>
-      <c r="H28" s="3">
-        <v>595.46964598020622</v>
-      </c>
-      <c r="I28" s="4">
-        <v>617.64118612539608</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1.3257894736842109</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1.1994736842105262</v>
-      </c>
-      <c r="L28" s="3">
-        <v>764.99663984767994</v>
-      </c>
-      <c r="M28" s="3">
-        <v>917.30057103946569</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0.42169797539570508</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0.40212206665994799</v>
-      </c>
-      <c r="P28" s="3">
-        <v>592.80665762015485</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>611.93708091723295</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0.57210526315789467</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="T28" s="3">
-        <v>1934.5825363346441</v>
-      </c>
-      <c r="U28" s="3">
-        <v>2018.4858844627897</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0.50872992351376944</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0.46134305895860739</v>
-      </c>
-      <c r="X28" s="3">
-        <v>643.14200700429296</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>643.49168534215755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.78578947368421048</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.78368421052631587</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1342.1276932087599</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1325.3039996556927</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.55226510564642151</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.41845574081640963</v>
-      </c>
-      <c r="H29" s="3">
-        <v>603.1587745586005</v>
-      </c>
-      <c r="I29" s="4">
-        <v>600.61451970895769</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.86263157894736842</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.86789473684210516</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1215.2694229675917</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1232.1416921104167</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0.53321019245455337</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.42600063486879963</v>
-      </c>
-      <c r="P29" s="3">
-        <v>602.62926567601596</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>598.52517925194252</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0.63833333333333331</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0.63105263157894742</v>
-      </c>
-      <c r="T29" s="3">
-        <v>1667.6613586870492</v>
-      </c>
-      <c r="U29" s="3">
-        <v>1709.75341334631</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0.54034668925480545</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0.46699920030382536</v>
-      </c>
-      <c r="X29" s="3">
-        <v>613.4557875150515</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>606.87851200048192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="AA40" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1.3507692307692309</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.1383333333333334</v>
+      </c>
+      <c r="D41" s="3">
+        <v>689.80710014532815</v>
+      </c>
+      <c r="E41" s="3">
+        <v>790.07807650325299</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.59169455184219233</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.42561676720726604</v>
+      </c>
+      <c r="H41" s="3">
+        <v>508.81874485256083</v>
+      </c>
+      <c r="I41" s="3">
+        <v>507.24045254969087</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1.8433333333333335</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1.8843750000000001</v>
+      </c>
+      <c r="L41" s="3">
+        <v>519.15359961020113</v>
+      </c>
+      <c r="M41" s="3">
+        <v>423.5098419949436</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.55059331779540666</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.37194771858705494</v>
+      </c>
+      <c r="P41" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>515.2956372315947</v>
+      </c>
+      <c r="R41" s="3">
+        <v>487.03790017456129</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0.64277777777777778</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0.80157894736842095</v>
+      </c>
+      <c r="U41" s="3">
+        <v>1260.6082317731141</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1079.7288062245714</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0.54825123894143313</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0.4585682146868022</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>463.80039875156774</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>430.63104791359837</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B42" s="7">
         <v>0.83473684210526311</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C42" s="7">
         <v>0.81684210526315781</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D42" s="3">
         <v>1238.8379465051555</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E42" s="3">
         <v>1314.1705029880629</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F42" s="3">
         <v>0.61790600821640562</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G42" s="3">
         <v>0.51656090640147201</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H42" s="3">
         <v>563.79586762687393</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I42" s="3">
         <v>575.55939193459176</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J42" s="3">
         <v>1.148421052631579</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K42" s="3">
         <v>1.1364999999999998</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L42" s="3">
         <v>992.0799136003119</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M42" s="3">
         <v>997.80566847395153</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N42" s="3">
         <v>0.57405109979480129</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O42" s="3">
         <v>0.47462314746661283</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P42" s="3" t="b">
+        <f>Tableau1[[#This Row],[TPVUS]]&gt;0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>568.95241017985347</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R42" s="3">
         <v>578.21396239068144</v>
       </c>
-      <c r="R30" s="6">
+      <c r="S42" s="3">
         <v>0.63777777777777778</v>
       </c>
-      <c r="S30" s="6">
+      <c r="T42" s="3">
         <v>0.63947368421052642</v>
       </c>
-      <c r="T30" s="6">
+      <c r="U42" s="3">
         <v>1655.6122907556442</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V42" s="3">
         <v>1694.1848077464488</v>
       </c>
-      <c r="V30" s="3">
+      <c r="W42" s="3">
         <v>0.63537911544453363</v>
       </c>
-      <c r="W30" s="3">
+      <c r="X42" s="3">
         <v>0.53828335601225086</v>
       </c>
-      <c r="X30" s="6">
+      <c r="Y42" s="3">
         <v>585.56462260170304</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Z42" s="3">
         <v>599.8522748440397</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="AA42" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="3">
+        <f>STDEVA(Tableau1[MDDN])/SQRT(COUNT(Tableau1[MDDN]))</f>
+        <v>4.2480803992293814E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[MDUN])</f>
+        <v>0.24249355929581129</v>
+      </c>
+      <c r="D43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[VMDN])</f>
+        <v>309.34465126979751</v>
+      </c>
+      <c r="E43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[VMUN])</f>
+        <v>290.09672630169393</v>
+      </c>
+      <c r="F43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[TPVDN])</f>
+        <v>4.3319308913065402E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[TPVUN])</f>
+        <v>4.3208230366212616E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[AMPDN])</f>
+        <v>54.036993542549659</v>
+      </c>
+      <c r="I43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[AMPUN])</f>
+        <v>48.643630053551867</v>
+      </c>
+      <c r="J43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[MDDS])</f>
+        <v>0.73774479962302331</v>
+      </c>
+      <c r="K43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[MDUS])</f>
+        <v>0.61028644418669287</v>
+      </c>
+      <c r="L43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[VMDS])</f>
+        <v>324.46826037413746</v>
+      </c>
+      <c r="M43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[VMUS])</f>
+        <v>320.43247695834765</v>
+      </c>
+      <c r="N43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[TPVDS])</f>
+        <v>7.3239357539262737E-2</v>
+      </c>
+      <c r="O43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[TPVUS])</f>
+        <v>6.4867210354300167E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <f>COUNTIF(Tableau1[Colonne1],"FAUX")</f>
         <v>37</v>
       </c>
-      <c r="B31" s="3">
-        <v>0.64450000000000007</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.62199999999999989</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1713.60817826364</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1792.1314194221832</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.49131735187928294</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.49065414347288544</v>
-      </c>
-      <c r="H31" s="3">
-        <v>620.04768516503702</v>
-      </c>
-      <c r="I31" s="4">
-        <v>632.29289738632144</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0.92099999999999993</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1202.7390236293663</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1375.5928674178444</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.62355269039471806</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.48862877688806544</v>
-      </c>
-      <c r="P31" s="3">
-        <v>603.26971718491166</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>619.41847944060214</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0.51899999999999991</v>
-      </c>
-      <c r="S31" s="3">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="T31" s="3">
-        <v>2222.8939860983078</v>
-      </c>
-      <c r="U31" s="3">
-        <v>2249.8339035218141</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0.51058192093408028</v>
-      </c>
-      <c r="W31" s="3">
-        <v>0.49717023697590879</v>
-      </c>
-      <c r="X31" s="3">
-        <v>669.9394641430215</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>673.50725539054304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.97545454545454502</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.78727272727272701</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1059.90974125151</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1281.74631877977</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.473501425456749</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.46839130693631997</v>
-      </c>
-      <c r="H32" s="3">
-        <v>576.59333286610695</v>
-      </c>
-      <c r="I32" s="3">
-        <v>550.88146747082703</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1.4090909090909001</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1.16818181818181</v>
-      </c>
-      <c r="L32" s="3">
-        <v>701.64751570123201</v>
-      </c>
-      <c r="M32" s="3">
-        <v>810.64193848688296</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0.49200434157628398</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0.45069015609652902</v>
-      </c>
-      <c r="P32" s="3">
-        <v>554.06303381323005</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>521.45423643095398</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0.44636363636363602</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2422.0969930586002</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2400.12315355088</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0.49489922010515403</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0.50742408740792599</v>
-      </c>
-      <c r="X32" s="3">
-        <v>562.48042692099898</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>538.578644990724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.80545454545454498</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.80454545454545401</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1391.0669308870099</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1446.7536207322</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.43845420100214499</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.48693633461812902</v>
-      </c>
-      <c r="H33" s="3">
-        <v>591.93770461823703</v>
-      </c>
-      <c r="I33" s="3">
-        <v>576.71429440862801</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1.60363636363636</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1.42363636363636</v>
-      </c>
-      <c r="L33" s="3">
-        <v>657.59635236067504</v>
-      </c>
-      <c r="M33" s="3">
-        <v>681.91456444398102</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0.34026802809911699</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0.51244110828637301</v>
-      </c>
-      <c r="P33" s="3">
-        <v>563.455136330291</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>538.33358782318396</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0.397272727272727</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0.41909090909090901</v>
-      </c>
-      <c r="T33" s="3">
-        <v>2780.08877395434</v>
-      </c>
-      <c r="U33" s="3">
-        <v>2564.1887938998898</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0.40693065117341898</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0.46828952943714403</v>
-      </c>
-      <c r="X33" s="3">
-        <v>599.22669160447401</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>575.972593408796</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.67363636363636303</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.61090909090908996</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1446.34261822962</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1575.91649783301</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.51506742415833295</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.486556883670961</v>
-      </c>
-      <c r="H34" s="3">
-        <v>524.95577069665103</v>
-      </c>
-      <c r="I34" s="3">
-        <v>530.41963967247</v>
-      </c>
-      <c r="J34" s="3">
-        <v>3.53727272727272</v>
-      </c>
-      <c r="K34" s="3">
-        <v>2.9863636363636301</v>
-      </c>
-      <c r="L34" s="3">
-        <v>270.478770446917</v>
-      </c>
-      <c r="M34" s="3">
-        <v>287.29222306624303</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0.46977590187877399</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0.52643923558928396</v>
-      </c>
-      <c r="P34" s="3">
-        <v>515.79154216518805</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>500.22009111493099</v>
-      </c>
-      <c r="R34" s="3">
-        <v>0.34818181818181798</v>
-      </c>
-      <c r="S34" s="3">
-        <v>0.311818181818181</v>
-      </c>
-      <c r="T34" s="3">
-        <v>2877.97626231711</v>
-      </c>
-      <c r="U34" s="3">
-        <v>2958.3341282925999</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0.52033857590559995</v>
-      </c>
-      <c r="W34" s="3">
-        <v>0.50134610035926397</v>
-      </c>
-      <c r="X34" s="3">
-        <v>526.77081221176297</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>517.50935144871198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.72909090909090901</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.68636363636363595</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1384.3181375888701</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1470.3078444206801</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.48487850488327</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.422396341140238</v>
-      </c>
-      <c r="H35" s="3">
-        <v>562.91994726454902</v>
-      </c>
-      <c r="I35" s="3">
-        <v>552.64892428040503</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1.5327272727272701</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1.4172727272727199</v>
-      </c>
-      <c r="L35" s="3">
-        <v>609.98737495933005</v>
-      </c>
-      <c r="M35" s="3">
-        <v>676.26737275925302</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0.43927828288230297</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0.42018440651738198</v>
-      </c>
-      <c r="P35" s="3">
-        <v>528.68755991704302</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>504.87162879489301</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0.39272727272727198</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0.33818181818181797</v>
-      </c>
-      <c r="T35" s="3">
-        <v>2866.35682458366</v>
-      </c>
-      <c r="U35" s="3">
-        <v>3170.98022016192</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0.51125648020638803</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0.40004708805168498</v>
-      </c>
-      <c r="X35" s="3">
-        <v>567.96219117200098</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>526.17367165140899</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1.13090909090909</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.94636363636363596</v>
-      </c>
-      <c r="D36" s="3">
-        <v>845.99818458669904</v>
-      </c>
-      <c r="E36" s="3">
-        <v>981.52812499758295</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.456497571449971</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.39160582514590098</v>
-      </c>
-      <c r="H36" s="3">
-        <v>513.11796196298803</v>
-      </c>
-      <c r="I36" s="3">
-        <v>509.19590729131698</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3.754</v>
-      </c>
-      <c r="K36" s="3">
-        <v>3.06454545454545</v>
-      </c>
-      <c r="L36" s="3">
-        <v>230.131751550552</v>
-      </c>
-      <c r="M36" s="3">
-        <v>275.70562451041297</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.51172894355905696</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.38129002784453497</v>
-      </c>
-      <c r="P36" s="3">
-        <v>485.91528257365297</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>471.41855787745499</v>
-      </c>
-      <c r="R36" s="3">
-        <v>0.27636363636363598</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0.25818181818181801</v>
-      </c>
-      <c r="T36" s="3">
-        <v>3570.7764449861702</v>
-      </c>
-      <c r="U36" s="3">
-        <v>3648.5705294407198</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0.45958859539504698</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0.42067658337250802</v>
-      </c>
-      <c r="X36" s="3">
-        <v>498.842161245873</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>494.46732469645599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1.3590909090909</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1.2072727272727199</v>
-      </c>
-      <c r="D37" s="3">
-        <v>737.41617595040998</v>
-      </c>
-      <c r="E37" s="3">
-        <v>881.18309667500898</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.41774007287742199</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.39746560803888498</v>
-      </c>
-      <c r="H37" s="3">
-        <v>540.92682265640804</v>
-      </c>
-      <c r="I37" s="3">
-        <v>533.14681168285597</v>
-      </c>
-      <c r="J37" s="3">
-        <v>2.98</v>
-      </c>
-      <c r="K37" s="3">
-        <v>2.2654545454545398</v>
-      </c>
-      <c r="L37" s="3">
-        <v>327.178609557615</v>
-      </c>
-      <c r="M37" s="3">
-        <v>396.82246039647703</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.27887088924861703</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.35579419944728302</v>
-      </c>
-      <c r="P37" s="3">
-        <v>524.463040329102</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>508.02877463616198</v>
-      </c>
-      <c r="R37" s="3">
-        <v>0.42272727272727201</v>
-      </c>
-      <c r="S37" s="3">
-        <v>0.35090909090909</v>
-      </c>
-      <c r="T37" s="3">
-        <v>2601.8185959909401</v>
-      </c>
-      <c r="U37" s="3">
-        <v>2579.3972646293901</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0.45375240762070101</v>
-      </c>
-      <c r="W37" s="3">
-        <v>0.44370824336097497</v>
-      </c>
-      <c r="X37" s="3">
-        <v>530.52016618364701</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>491.344210655815</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.70727272727272705</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.66909090909090896</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1503.81176829994</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1389.0998229147699</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.51589917947015296</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.41260971320350998</v>
-      </c>
-      <c r="H38" s="3">
-        <v>564.10919649602397</v>
-      </c>
-      <c r="I38" s="3">
-        <v>549.56398045535605</v>
-      </c>
-      <c r="J38" s="3">
-        <v>3.0418181818181802</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2.5345454545454502</v>
-      </c>
-      <c r="L38" s="3">
-        <v>293.82488266705502</v>
-      </c>
-      <c r="M38" s="3">
-        <v>350.02806937089298</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0.34571964585083098</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.25725624828527799</v>
-      </c>
-      <c r="P38" s="3">
-        <v>534.74962707048701</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>527.58355618700898</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0.39636363636363597</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0.38727272727272699</v>
-      </c>
-      <c r="T38" s="3">
-        <v>2784.722543204</v>
-      </c>
-      <c r="U38" s="3">
-        <v>2666.2952611625801</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0.52158007354958502</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0.43257186096627798</v>
-      </c>
-      <c r="X38" s="3">
-        <v>550.02143820122001</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>533.30108401133703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.76272727272727203</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.63454545454545397</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1314.7728129689301</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1646.94642585409</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.47529889869459002</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.43442260447803299</v>
-      </c>
-      <c r="H39" s="3">
-        <v>553.20361727975501</v>
-      </c>
-      <c r="I39" s="3">
-        <v>541.30448906501499</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0.98090909090909095</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.90363636363636302</v>
-      </c>
-      <c r="L39" s="3">
-        <v>983.41559855579396</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1022.2837489556</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0.370407883770349</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0.38780567920608899</v>
-      </c>
-      <c r="P39" s="3">
-        <v>534.07459264335705</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>524.43860686109895</v>
-      </c>
-      <c r="R39" s="3">
-        <v>0.33636363636363598</v>
-      </c>
-      <c r="S39" s="3">
-        <v>0.31272727272727202</v>
-      </c>
-      <c r="T39" s="3">
-        <v>3214.3730978803001</v>
-      </c>
-      <c r="U39" s="3">
-        <v>3300.8432269728301</v>
-      </c>
-      <c r="V39" s="3">
-        <v>0.40906053437103901</v>
-      </c>
-      <c r="W39" s="3">
-        <v>0.35889872168089798</v>
-      </c>
-      <c r="X39" s="3">
-        <v>537.94601016126398</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>522.976707183499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="D40" s="3">
-        <v>793.40134172619196</v>
-      </c>
-      <c r="E40" s="3">
-        <v>978.763802706766</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.44625647170126798</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.41537819050896801</v>
-      </c>
-      <c r="H40" s="3">
-        <v>535.53880449986798</v>
-      </c>
-      <c r="I40" s="3">
-        <v>534.05590746112205</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1.7418181818181799</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1.5554545454545401</v>
-      </c>
-      <c r="L40" s="3">
-        <v>477.65556060440298</v>
-      </c>
-      <c r="M40" s="3">
-        <v>552.34220588712606</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.48081154573207702</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0.40134352723789901</v>
-      </c>
-      <c r="P40" s="3">
-        <v>495.43761673495999</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>499.10559857250303</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0.36909090909090903</v>
-      </c>
-      <c r="S40" s="3">
-        <v>0.37181818181818099</v>
-      </c>
-      <c r="T40" s="3">
-        <v>3049.77289496909</v>
-      </c>
-      <c r="U40" s="3">
-        <v>2777.53774451342</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0.47084502145477702</v>
-      </c>
-      <c r="W40" s="3">
-        <v>0.46773383257657902</v>
-      </c>
-      <c r="X40" s="3">
-        <v>524.70376478728201</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>537.08076349424505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1.29181818181818</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.17545454545454</v>
-      </c>
-      <c r="D41" s="3">
-        <v>707.61943670668495</v>
-      </c>
-      <c r="E41" s="3">
-        <v>762.57560689008199</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.45640848881649199</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.48743998849094899</v>
-      </c>
-      <c r="H41" s="3">
-        <v>469.42399250425302</v>
-      </c>
-      <c r="I41" s="3">
-        <v>489.15660981139899</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3.4909090909090899</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3.1227272727272699</v>
-      </c>
-      <c r="L41" s="3">
-        <v>257.14434205744499</v>
-      </c>
-      <c r="M41" s="3">
-        <v>237.88573146950799</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0.41172736756989697</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0.41361580316767499</v>
-      </c>
-      <c r="P41" s="3">
-        <v>438.98096371210499</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>444.86601093953698</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0.37454545454545402</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0.325454545454545</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2611.8945946702001</v>
-      </c>
-      <c r="U41" s="3">
-        <v>2758.9744138569699</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0.485478158205431</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0.41993595945936402</v>
-      </c>
-      <c r="X41" s="3">
-        <v>468.32273458948498</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>470.54472142895497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.81727272727272704</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.63818181818181796</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1220.1574648394401</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1506.9460183946001</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.50480675631976601</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.46197239345693097</v>
-      </c>
-      <c r="H42" s="3">
-        <v>551.46313685385701</v>
-      </c>
-      <c r="I42" s="3">
-        <v>544.70002259381397</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1.1354545454545399</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.93818181818181801</v>
-      </c>
-      <c r="L42" s="3">
-        <v>837.70154322584597</v>
-      </c>
-      <c r="M42" s="3">
-        <v>977.56946119366296</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0.58071485243227305</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0.54518881727498203</v>
-      </c>
-      <c r="P42" s="3">
-        <v>519.84297167899001</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>521.80618158929997</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0.34909090909090901</v>
-      </c>
-      <c r="T42" s="3">
-        <v>2857.0731518348798</v>
-      </c>
-      <c r="U42" s="3">
-        <v>3228.9276639480099</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0.39606604742948698</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0.330404714562468</v>
-      </c>
-      <c r="X42" s="3">
-        <v>536.913267385582</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>542.09771782953203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <v>0.23</v>
-      </c>
-      <c r="C44">
-        <v>0.26</v>
-      </c>
-      <c r="D44">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E44">
-        <v>0.32</v>
-      </c>
-      <c r="F44">
-        <v>0.35</v>
-      </c>
-      <c r="G44">
-        <v>0.38</v>
-      </c>
-      <c r="H44">
-        <v>0.41</v>
-      </c>
-      <c r="I44">
-        <v>0.44</v>
-      </c>
-      <c r="J44">
-        <v>0.47</v>
-      </c>
-      <c r="K44">
-        <v>0.5</v>
-      </c>
-      <c r="L44">
-        <v>0.53</v>
-      </c>
-      <c r="M44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N44">
-        <v>0.59</v>
-      </c>
-      <c r="O44">
-        <v>0.62</v>
-      </c>
-      <c r="P44">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,22",Tableau1[TPVDN], "&lt;0,25")</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,25",Tableau1[TPVDN], "&lt;0,28")</f>
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,28",Tableau1[TPVDN], "&lt;0,31")</f>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,31",Tableau1[TPVDN], "&lt;0,34")</f>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,34",Tableau1[TPVDN], "&lt;0,37")</f>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,37",Tableau1[TPVDN], "&lt;0,40")</f>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,40",Tableau1[TPVDN], "&lt;0,43")</f>
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,43",Tableau1[TPVDN], "&lt;0,46")</f>
-        <v>5</v>
-      </c>
-      <c r="J45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,46",Tableau1[TPVDN], "&lt;0,49")</f>
-        <v>8</v>
-      </c>
-      <c r="K45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,49",Tableau1[TPVDN], "&lt;0,52")</f>
-        <v>16</v>
-      </c>
-      <c r="L45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,52",Tableau1[TPVDN], "&lt;0,55")</f>
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,55",Tableau1[TPVDN], "&lt;0,58")</f>
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,58",Tableau1[TPVDN], "&lt;0,61")</f>
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,61",Tableau1[TPVDN], "&lt;0,64")</f>
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,64",Tableau1[TPVDN], "&lt;0,67")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,22",Tableau1[TPVUN], "&lt;0,25")</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,25",Tableau1[TPVUN], "&lt;0,28")</f>
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,28",Tableau1[TPVUN], "&lt;0,31")</f>
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,31",Tableau1[TPVUN], "&lt;=0,34")</f>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,34",Tableau1[TPVUN], "&lt;0,37")</f>
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,37",Tableau1[TPVUN], "&lt;0,40")</f>
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,40",Tableau1[TPVUN], "&lt;0,43")</f>
-        <v>9</v>
-      </c>
-      <c r="I46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,43",Tableau1[TPVUN], "&lt;0,46")</f>
-        <v>11</v>
-      </c>
-      <c r="J46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,46",Tableau1[TPVUN], "&lt;0,49")</f>
-        <v>9</v>
-      </c>
-      <c r="K46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,49",Tableau1[TPVUN], "&lt;0,52")</f>
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,52",Tableau1[TPVUN], "&lt;0,55")</f>
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,55",Tableau1[TPVUN], "&lt;0,58")</f>
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,58",Tableau1[TPVUN], "&lt;0,61")</f>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,61",Tableau1[TPVUN], "&lt;0,64")</f>
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,64",Tableau1[TPVUN], "&lt;0,67")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B49">
-        <v>0.23</v>
-      </c>
-      <c r="C49">
-        <v>0.26</v>
-      </c>
-      <c r="D49">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E49">
-        <v>0.32</v>
-      </c>
-      <c r="F49">
-        <v>0.35</v>
-      </c>
-      <c r="G49">
-        <v>0.38</v>
-      </c>
-      <c r="H49">
-        <v>0.41</v>
-      </c>
-      <c r="I49">
-        <v>0.44</v>
-      </c>
-      <c r="J49">
-        <v>0.47</v>
-      </c>
-      <c r="K49">
-        <v>0.5</v>
-      </c>
-      <c r="L49">
-        <v>0.53</v>
-      </c>
-      <c r="M49">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N49">
-        <v>0.59</v>
-      </c>
-      <c r="O49">
-        <v>0.62</v>
-      </c>
-      <c r="P49">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,22",Tableau1[TPVDS], "&lt;0,25")</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,25",Tableau1[TPVDS], "&lt;0,28")</f>
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,28",Tableau1[TPVDS], "&lt;0,31")</f>
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,31",Tableau1[TPVDS], "&lt;0,34")</f>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,34",Tableau1[TPVDS], "&lt;0,37")</f>
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,37",Tableau1[TPVDS], "&lt;0,40")</f>
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,40",Tableau1[TPVDS], "&lt;0,43")</f>
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,43",Tableau1[TPVDS], "&lt;0,46")</f>
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,46",Tableau1[TPVDS], "&lt;0,49")</f>
-        <v>6</v>
-      </c>
-      <c r="K50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,49",Tableau1[TPVDS], "&lt;0,52")</f>
-        <v>6</v>
-      </c>
-      <c r="L50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,52",Tableau1[TPVDS], "&lt;0,55")</f>
-        <v>8</v>
-      </c>
-      <c r="M50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,55",Tableau1[TPVDS], "&lt;0,58")</f>
-        <v>2</v>
-      </c>
-      <c r="N50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,58",Tableau1[TPVDS], "&lt;0,61")</f>
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,61",Tableau1[TPVDS], "&lt;0,64")</f>
-        <v>2</v>
-      </c>
-      <c r="P50">
-        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,64",Tableau1[TPVDS], "&lt;0,67")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,22",Tableau1[TPVUS], "&lt;0,25")</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,25",Tableau1[TPVUS], "&lt;0,28")</f>
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,28",Tableau1[TPVUS], "&lt;0,31")</f>
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,31",Tableau1[TPVUS], "&lt;=0,34")</f>
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,34",Tableau1[TPVUS], "&lt;0,37")</f>
-        <v>8</v>
-      </c>
-      <c r="G51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,37",Tableau1[TPVUS], "&lt;0,40")</f>
-        <v>6</v>
-      </c>
-      <c r="H51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,40",Tableau1[TPVUS], "&lt;0,43")</f>
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,43",Tableau1[TPVUS], "&lt;0,46")</f>
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,46",Tableau1[TPVUS], "&lt;0,49")</f>
-        <v>6</v>
-      </c>
-      <c r="K51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,49",Tableau1[TPVUS], "&lt;0,52")</f>
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,52",Tableau1[TPVUS], "&lt;0,55")</f>
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,55",Tableau1[TPVUS], "&lt;0,58")</f>
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,58",Tableau1[TPVUS], "&lt;0,61")</f>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,61",Tableau1[TPVUS], "&lt;0,64")</f>
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,64",Tableau1[TPVUS], "&lt;0,67")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B54">
-        <v>0.23</v>
-      </c>
-      <c r="C54">
-        <v>0.26</v>
-      </c>
-      <c r="D54">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E54">
-        <v>0.32</v>
-      </c>
-      <c r="F54">
-        <v>0.35</v>
-      </c>
-      <c r="G54">
-        <v>0.38</v>
-      </c>
-      <c r="H54">
-        <v>0.41</v>
-      </c>
-      <c r="I54">
-        <v>0.44</v>
-      </c>
-      <c r="J54">
-        <v>0.47</v>
-      </c>
-      <c r="K54">
-        <v>0.5</v>
-      </c>
-      <c r="L54">
-        <v>0.53</v>
-      </c>
-      <c r="M54">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N54">
-        <v>0.59</v>
-      </c>
-      <c r="O54">
-        <v>0.62</v>
-      </c>
-      <c r="P54">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,22",Tableau1[TPVDF], "&lt;0,25")</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,25",Tableau1[TPVDF], "&lt;0,28")</f>
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,28",Tableau1[TPVDF], "&lt;0,31")</f>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,31",Tableau1[TPVDF], "&lt;0,34")</f>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,34",Tableau1[TPVDF], "&lt;0,37")</f>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,37",Tableau1[TPVDF], "&lt;0,40")</f>
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,40",Tableau1[TPVDF], "&lt;0,43")</f>
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,43",Tableau1[TPVDF], "&lt;0,46")</f>
-        <v>3</v>
-      </c>
-      <c r="J55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,46",Tableau1[TPVDF], "&lt;0,49")</f>
-        <v>7</v>
-      </c>
-      <c r="K55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,49",Tableau1[TPVDF], "&lt;0,52")</f>
-        <v>14</v>
-      </c>
-      <c r="L55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,52",Tableau1[TPVDF], "&lt;0,55")</f>
-        <v>9</v>
-      </c>
-      <c r="M55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,55",Tableau1[TPVDF], "&lt;0,58")</f>
-        <v>2</v>
-      </c>
-      <c r="N55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,58",Tableau1[TPVDF], "&lt;0,61")</f>
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,61",Tableau1[TPVDF], "&lt;0,64")</f>
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,64",Tableau1[TPVDF], "&lt;0,67")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,22",Tableau1[TPVUF], "&lt;0,25")</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,25",Tableau1[TPVUF], "&lt;0,28")</f>
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,28",Tableau1[TPVUF], "&lt;0,31")</f>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,31",Tableau1[TPVUF], "&lt;=0,34")</f>
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,34",Tableau1[TPVUF], "&lt;0,37")</f>
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,37",Tableau1[TPVUF], "&lt;0,40")</f>
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,40",Tableau1[TPVUS], "&lt;0,43")</f>
-        <v>10</v>
-      </c>
-      <c r="I56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,43",Tableau1[TPVUF], "&lt;0,46")</f>
-        <v>12</v>
-      </c>
-      <c r="J56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,46",Tableau1[TPVUF], "&lt;0,49")</f>
-        <v>13</v>
-      </c>
-      <c r="K56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,49",Tableau1[TPVUF], "&lt;0,52")</f>
-        <v>5</v>
-      </c>
-      <c r="L56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,52",Tableau1[TPVUF], "&lt;0,55")</f>
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,55",Tableau1[TPVUF], "&lt;0,58")</f>
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,58",Tableau1[TPVUF], "&lt;0,61")</f>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,61",Tableau1[TPVUF], "&lt;0,64")</f>
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,64",Tableau1[TPVUF], "&lt;0,67")</f>
-        <v>0</v>
-      </c>
+      <c r="Q43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[AMPDS])</f>
+        <v>60.821780974008711</v>
+      </c>
+      <c r="R43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[AMPUS])</f>
+        <v>59.342999958955069</v>
+      </c>
+      <c r="S43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[MDDF])</f>
+        <v>0.16988046827182879</v>
+      </c>
+      <c r="T43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[MDUF])</f>
+        <v>0.16680866106893372</v>
+      </c>
+      <c r="U43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[VMDF])</f>
+        <v>591.49855172661705</v>
+      </c>
+      <c r="V43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[VMUF])</f>
+        <v>608.25435488424159</v>
+      </c>
+      <c r="W43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[TPVDF])</f>
+        <v>4.7594682708551495E-2</v>
+      </c>
+      <c r="X43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[TPVUF])</f>
+        <v>4.074624736026522E-2</v>
+      </c>
+      <c r="Y43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[AMPDF])</f>
+        <v>70.654926267892108</v>
+      </c>
+      <c r="Z43" s="3">
+        <f>_xlfn.STDEV.P(Tableau1[AMPUF])</f>
+        <v>71.360213817639661</v>
+      </c>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1664E725-7725-4120-8C38-0AA1C9A4785C}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>0.23</v>
+      </c>
+      <c r="C1">
+        <v>0.26</v>
+      </c>
+      <c r="D1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E1">
+        <v>0.32</v>
+      </c>
+      <c r="F1">
+        <v>0.35</v>
+      </c>
+      <c r="G1">
+        <v>0.38</v>
+      </c>
+      <c r="H1">
+        <v>0.41</v>
+      </c>
+      <c r="I1">
+        <v>0.44</v>
+      </c>
+      <c r="J1">
+        <v>0.47</v>
+      </c>
+      <c r="K1">
+        <v>0.5</v>
+      </c>
+      <c r="L1">
+        <v>0.53</v>
+      </c>
+      <c r="M1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N1">
+        <v>0.59</v>
+      </c>
+      <c r="O1">
+        <v>0.62</v>
+      </c>
+      <c r="P1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,22",Tableau1[TPVDN], "&lt;0,25")</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,25",Tableau1[TPVDN], "&lt;0,28")</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,28",Tableau1[TPVDN], "&lt;0,31")</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,31",Tableau1[TPVDN], "&lt;0,34")</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,34",Tableau1[TPVDN], "&lt;0,37")</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,37",Tableau1[TPVDN], "&lt;0,40")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,40",Tableau1[TPVDN], "&lt;0,43")</f>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,43",Tableau1[TPVDN], "&lt;0,46")</f>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,46",Tableau1[TPVDN], "&lt;0,49")</f>
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,49",Tableau1[TPVDN], "&lt;0,52")</f>
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,52",Tableau1[TPVDN], "&lt;0,55")</f>
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,55",Tableau1[TPVDN], "&lt;0,58")</f>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,58",Tableau1[TPVDN], "&lt;0,61")</f>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,61",Tableau1[TPVDN], "&lt;0,64")</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIFS(Tableau1[TPVDN],"&gt;=0,64",Tableau1[TPVDN], "&lt;0,67")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,22",Tableau1[TPVUN], "&lt;0,25")</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,25",Tableau1[TPVUN], "&lt;0,28")</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,28",Tableau1[TPVUN], "&lt;0,31")</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,31",Tableau1[TPVUN], "&lt;=0,34")</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,34",Tableau1[TPVUN], "&lt;0,37")</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,37",Tableau1[TPVUN], "&lt;0,40")</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,40",Tableau1[TPVUN], "&lt;0,43")</f>
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,43",Tableau1[TPVUN], "&lt;0,46")</f>
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,46",Tableau1[TPVUN], "&lt;0,49")</f>
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,49",Tableau1[TPVUN], "&lt;0,52")</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,52",Tableau1[TPVUN], "&lt;0,55")</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,55",Tableau1[TPVUN], "&lt;0,58")</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,58",Tableau1[TPVUN], "&lt;0,61")</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,61",Tableau1[TPVUN], "&lt;0,64")</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIFS(Tableau1[TPVUN],"&gt;=0,64",Tableau1[TPVUN], "&lt;0,67")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0.23</v>
+      </c>
+      <c r="C6">
+        <v>0.26</v>
+      </c>
+      <c r="D6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.32</v>
+      </c>
+      <c r="F6">
+        <v>0.35</v>
+      </c>
+      <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
+        <v>0.41</v>
+      </c>
+      <c r="I6">
+        <v>0.44</v>
+      </c>
+      <c r="J6">
+        <v>0.47</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.53</v>
+      </c>
+      <c r="M6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N6">
+        <v>0.59</v>
+      </c>
+      <c r="O6">
+        <v>0.62</v>
+      </c>
+      <c r="P6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,22",Tableau1[TPVDS], "&lt;0,25")</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,25",Tableau1[TPVDS], "&lt;0,28")</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,28",Tableau1[TPVDS], "&lt;0,31")</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,31",Tableau1[TPVDS], "&lt;0,34")</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,34",Tableau1[TPVDS], "&lt;0,37")</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,37",Tableau1[TPVDS], "&lt;0,40")</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,40",Tableau1[TPVDS], "&lt;0,43")</f>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,43",Tableau1[TPVDS], "&lt;0,46")</f>
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,46",Tableau1[TPVDS], "&lt;0,49")</f>
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,49",Tableau1[TPVDS], "&lt;0,52")</f>
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,52",Tableau1[TPVDS], "&lt;0,55")</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,55",Tableau1[TPVDS], "&lt;0,58")</f>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,58",Tableau1[TPVDS], "&lt;0,61")</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,61",Tableau1[TPVDS], "&lt;0,64")</f>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f>COUNTIFS(Tableau1[TPVDS],"&gt;=0,64",Tableau1[TPVDS], "&lt;0,67")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,22",Tableau1[TPVUS], "&lt;0,25")</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,25",Tableau1[TPVUS], "&lt;0,28")</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,28",Tableau1[TPVUS], "&lt;0,31")</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,31",Tableau1[TPVUS], "&lt;=0,34")</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,34",Tableau1[TPVUS], "&lt;0,37")</f>
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,37",Tableau1[TPVUS], "&lt;0,40")</f>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,40",Tableau1[TPVUS], "&lt;0,43")</f>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,43",Tableau1[TPVUS], "&lt;0,46")</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,46",Tableau1[TPVUS], "&lt;0,49")</f>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,49",Tableau1[TPVUS], "&lt;0,52")</f>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,52",Tableau1[TPVUS], "&lt;0,55")</f>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,55",Tableau1[TPVUS], "&lt;0,58")</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,58",Tableau1[TPVUS], "&lt;0,61")</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,61",Tableau1[TPVUS], "&lt;0,64")</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,64",Tableau1[TPVUS], "&lt;0,67")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0.23</v>
+      </c>
+      <c r="C11">
+        <v>0.26</v>
+      </c>
+      <c r="D11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.32</v>
+      </c>
+      <c r="F11">
+        <v>0.35</v>
+      </c>
+      <c r="G11">
+        <v>0.38</v>
+      </c>
+      <c r="H11">
+        <v>0.41</v>
+      </c>
+      <c r="I11">
+        <v>0.44</v>
+      </c>
+      <c r="J11">
+        <v>0.47</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>0.53</v>
+      </c>
+      <c r="M11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.59</v>
+      </c>
+      <c r="O11">
+        <v>0.62</v>
+      </c>
+      <c r="P11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,22",Tableau1[TPVDF], "&lt;0,25")</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,25",Tableau1[TPVDF], "&lt;0,28")</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,28",Tableau1[TPVDF], "&lt;0,31")</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,31",Tableau1[TPVDF], "&lt;0,34")</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,34",Tableau1[TPVDF], "&lt;0,37")</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,37",Tableau1[TPVDF], "&lt;0,40")</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,40",Tableau1[TPVDF], "&lt;0,43")</f>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,43",Tableau1[TPVDF], "&lt;0,46")</f>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,46",Tableau1[TPVDF], "&lt;0,49")</f>
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,49",Tableau1[TPVDF], "&lt;0,52")</f>
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,52",Tableau1[TPVDF], "&lt;0,55")</f>
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,55",Tableau1[TPVDF], "&lt;0,58")</f>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,58",Tableau1[TPVDF], "&lt;0,61")</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,61",Tableau1[TPVDF], "&lt;0,64")</f>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIFS(Tableau1[TPVDF],"&gt;=0,64",Tableau1[TPVDF], "&lt;0,67")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,22",Tableau1[TPVUF], "&lt;0,25")</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,25",Tableau1[TPVUF], "&lt;0,28")</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,28",Tableau1[TPVUF], "&lt;0,31")</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,31",Tableau1[TPVUF], "&lt;=0,34")</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,34",Tableau1[TPVUF], "&lt;0,37")</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,37",Tableau1[TPVUF], "&lt;0,40")</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIFS(Tableau1[TPVUS],"&gt;=0,40",Tableau1[TPVUS], "&lt;0,43")</f>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,43",Tableau1[TPVUF], "&lt;0,46")</f>
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,46",Tableau1[TPVUF], "&lt;0,49")</f>
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,49",Tableau1[TPVUF], "&lt;0,52")</f>
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,52",Tableau1[TPVUF], "&lt;0,55")</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,55",Tableau1[TPVUF], "&lt;0,58")</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,58",Tableau1[TPVUF], "&lt;0,61")</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,61",Tableau1[TPVUF], "&lt;0,64")</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIFS(Tableau1[TPVUF],"&gt;=0,64",Tableau1[TPVUF], "&lt;0,67")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D56161-D947-4F14-9C37-8054E8811263}">
   <sheetPr codeName="XLSTAT_20220111_140947_1_HID">
     <tabColor rgb="FF007800"/>
@@ -14143,7 +14834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC78713-AFDF-4EEC-91BA-1B60A74F1AFD}">
   <sheetPr codeName="XLSTAT_20220111_115245_1_HID">
     <tabColor rgb="FF007800"/>
@@ -15841,7 +16532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EC8CA0-7EF9-471C-852B-377216241130}">
   <sheetPr codeName="XLSTAT_20220111_114934_1_HID"/>
   <dimension ref="A1:H70"/>
